--- a/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
@@ -759,8 +759,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,14 +776,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,16 +790,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -814,24 +814,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,30 +828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,15 +843,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,6 +862,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -924,7 +924,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,19 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,49 +1044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,67 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +1093,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,16 +1134,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,11 +1170,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,6 +1192,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1198,42 +1216,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,130 +1251,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1724,10 +1724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -6882,1569 +6882,1553 @@
       <c r="H261" s="7"/>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="6">
-        <v>261</v>
-      </c>
-      <c r="B262" s="6" t="s">
+      <c r="A262" s="7">
+        <v>262</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="6">
+        <v>263</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="7">
+        <v>264</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="7"/>
+      <c r="H264" s="7"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="6">
+        <v>265</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="7">
+        <v>266</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E266" s="7">
+        <v>200</v>
+      </c>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="7"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="6">
+        <v>267</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="7">
+        <v>268</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H268" s="7"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="6">
+        <v>269</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6">
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6">
         <v>5</v>
       </c>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
-      <c r="H262" s="6"/>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="7">
-        <v>262</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D263" s="7" t="s">
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="7">
+        <v>270</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="7"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="6">
+        <v>271</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="7">
+        <v>272</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H272" s="7"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="6">
+        <v>273</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6">
+        <v>5</v>
+      </c>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="7">
+        <v>274</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="7"/>
+      <c r="H274" s="7"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="6">
+        <v>275</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="7">
+        <v>276</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
+      <c r="H276" s="7"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="6">
+        <v>277</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6">
+        <v>10</v>
+      </c>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="7">
+        <v>278</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H278" s="7"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="6">
+        <v>279</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6">
+        <v>10</v>
+      </c>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="7">
+        <v>280</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H280" s="7"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="6">
+        <v>281</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="7">
+        <v>282</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7">
+        <v>5</v>
+      </c>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="6">
+        <v>283</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="7">
+        <v>284</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7">
+        <v>5</v>
+      </c>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="6">
+        <v>285</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286" s="4" customFormat="1" spans="1:8">
+      <c r="A286" s="7">
+        <v>286</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H286" s="7"/>
+    </row>
+    <row r="287" s="4" customFormat="1" spans="1:8">
+      <c r="A287" s="6">
+        <v>287</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" s="4" customFormat="1" spans="1:8">
+      <c r="A288" s="7">
+        <v>288</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H288" s="7"/>
+    </row>
+    <row r="289" s="4" customFormat="1" spans="1:8">
+      <c r="A289" s="6">
+        <v>289</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" s="4" customFormat="1" spans="1:8">
+      <c r="A290" s="7">
+        <v>290</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7">
+        <v>4</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H290" s="7"/>
+    </row>
+    <row r="291" s="4" customFormat="1" spans="1:8">
+      <c r="A291" s="6">
+        <v>291</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292" s="4" customFormat="1" spans="1:8">
+      <c r="A292" s="7">
+        <v>292</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7">
+        <v>8</v>
+      </c>
+      <c r="F292" s="7"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+    </row>
+    <row r="293" s="4" customFormat="1" spans="1:8">
+      <c r="A293" s="6">
+        <v>293</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" s="4" customFormat="1" spans="1:8">
+      <c r="A294" s="7">
+        <v>294</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H294" s="7"/>
+    </row>
+    <row r="295" s="4" customFormat="1" spans="1:8">
+      <c r="A295" s="6">
+        <v>295</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" s="4" customFormat="1" spans="1:8">
+      <c r="A296" s="7">
+        <v>296</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E296" s="7"/>
+      <c r="F296" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H296" s="7"/>
+    </row>
+    <row r="297" s="4" customFormat="1" spans="1:8">
+      <c r="A297" s="6">
+        <v>297</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" s="4" customFormat="1" spans="1:8">
+      <c r="A298" s="7">
+        <v>298</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H298" s="7"/>
+    </row>
+    <row r="299" s="4" customFormat="1" spans="1:8">
+      <c r="A299" s="6">
+        <v>299</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" s="4" customFormat="1" spans="1:8">
+      <c r="A300" s="7">
+        <v>300</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H300" s="7"/>
+    </row>
+    <row r="301" s="4" customFormat="1" spans="1:8">
+      <c r="A301" s="6">
+        <v>301</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" s="4" customFormat="1" spans="1:8">
+      <c r="A302" s="7">
+        <v>302</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H302" s="7"/>
+    </row>
+    <row r="303" s="4" customFormat="1" spans="1:8">
+      <c r="A303" s="6">
+        <v>303</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" s="4" customFormat="1" spans="1:8">
+      <c r="A304" s="7">
+        <v>304</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E304" s="7">
+        <v>2</v>
+      </c>
+      <c r="F304" s="7"/>
+      <c r="G304" s="7"/>
+      <c r="H304" s="7"/>
+    </row>
+    <row r="305" s="4" customFormat="1" spans="1:8">
+      <c r="A305" s="6">
+        <v>305</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" s="4" customFormat="1" spans="1:8">
+      <c r="A306" s="7">
+        <v>306</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E306" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F306" s="7"/>
+      <c r="G306" s="7"/>
+      <c r="H306" s="7"/>
+    </row>
+    <row r="307" s="4" customFormat="1" spans="1:8">
+      <c r="A307" s="6">
+        <v>307</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E307" s="6">
+        <v>9789045678</v>
+      </c>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308" s="4" customFormat="1" spans="1:8">
+      <c r="A308" s="7">
+        <v>308</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E308" s="7">
+        <v>21331</v>
+      </c>
+      <c r="F308" s="7"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7"/>
+    </row>
+    <row r="309" s="4" customFormat="1" spans="1:8">
+      <c r="A309" s="6">
+        <v>309</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E309" s="6">
+        <v>97989898982</v>
+      </c>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310" s="4" customFormat="1" spans="1:8">
+      <c r="A310" s="7">
+        <v>310</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
+    </row>
+    <row r="311" s="4" customFormat="1" spans="1:8">
+      <c r="A311" s="6">
+        <v>311</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312" s="4" customFormat="1" spans="1:8">
+      <c r="A312" s="7">
+        <v>312</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F312" s="7"/>
+      <c r="G312" s="7"/>
+      <c r="H312" s="7"/>
+    </row>
+    <row r="313" s="4" customFormat="1" spans="1:8">
+      <c r="A313" s="6">
+        <v>313</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314" s="4" customFormat="1" spans="1:8">
+      <c r="A314" s="7">
+        <v>314</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7">
+        <v>5</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G314" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H314" s="7"/>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="6">
+        <v>315</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6">
+        <v>5</v>
+      </c>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="7">
+        <v>316</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7"/>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="6">
-        <v>263</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D264" s="6" t="s">
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" s="7"/>
+      <c r="H316" s="7"/>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="6">
+        <v>317</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6" t="s">
+      <c r="E317" s="6"/>
+      <c r="F317" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G264" s="6" t="s">
+      <c r="G317" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H264" s="6"/>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="7">
-        <v>264</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D265" s="7" t="s">
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="7">
+        <v>318</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E265" s="7"/>
-      <c r="F265" s="7"/>
-      <c r="G265" s="7"/>
-      <c r="H265" s="7"/>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="6">
-        <v>265</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D266" s="6" t="s">
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="7"/>
+      <c r="H318" s="7"/>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="6">
+        <v>319</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6" t="s">
+      <c r="E319" s="6"/>
+      <c r="F319" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G266" s="6" t="s">
+      <c r="G319" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H266" s="6"/>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="7">
-        <v>266</v>
-      </c>
-      <c r="B267" s="7" t="s">
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="7">
+        <v>320</v>
+      </c>
+      <c r="B320" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C267" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D267" s="7" t="s">
+      <c r="C320" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E267" s="7">
+      <c r="E320" s="7">
         <v>200</v>
       </c>
-      <c r="F267" s="7"/>
-      <c r="G267" s="7"/>
-      <c r="H267" s="7"/>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="6">
-        <v>267</v>
-      </c>
-      <c r="B268" s="6" t="s">
+      <c r="F320" s="7"/>
+      <c r="G320" s="7"/>
+      <c r="H320" s="7"/>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="6">
+        <v>321</v>
+      </c>
+      <c r="B321" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D268" s="6" t="s">
+      <c r="C321" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E268" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F268" s="6"/>
-      <c r="G268" s="6"/>
-      <c r="H268" s="6"/>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="7">
-        <v>268</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D269" s="7" t="s">
+      <c r="E321" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="7">
+        <v>322</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
+      <c r="G322" s="7"/>
+      <c r="H322" s="7"/>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="6">
+        <v>323</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="7">
+        <v>324</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" s="7"/>
+      <c r="H324" s="7"/>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="6">
+        <v>325</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E325" s="6">
+        <v>2</v>
+      </c>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="7">
+        <v>326</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E326" s="7">
+        <v>62711</v>
+      </c>
+      <c r="F326" s="7"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="7"/>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="6">
+        <v>327</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7" t="s">
+      <c r="E327" s="6"/>
+      <c r="F327" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G269" s="7" t="s">
+      <c r="G327" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H269" s="7"/>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="6">
-        <v>269</v>
-      </c>
-      <c r="B270" s="6" t="s">
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="7">
+        <v>328</v>
+      </c>
+      <c r="B328" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6">
+      <c r="C328" s="7"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="7">
         <v>5</v>
       </c>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
-      <c r="H270" s="6"/>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="7">
-        <v>270</v>
-      </c>
-      <c r="B271" s="7" t="s">
+      <c r="F328" s="7"/>
+      <c r="G328" s="7"/>
+      <c r="H328" s="7"/>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="6">
+        <v>329</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C329" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D329" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E271" s="7" t="s">
+      <c r="E329" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7"/>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="6">
-        <v>271</v>
-      </c>
-      <c r="B272" s="6" t="s">
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="7">
+        <v>330</v>
+      </c>
+      <c r="B330" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D272" s="6" t="s">
+      <c r="C330" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E272" s="6" t="s">
+      <c r="E330" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F272" s="6" t="s">
+      <c r="F330" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G272" s="6" t="s">
+      <c r="G330" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H272" s="6"/>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="7">
-        <v>272</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D273" s="7" t="s">
+      <c r="H330" s="7"/>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="6">
+        <v>331</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7" t="s">
+      <c r="E331" s="6"/>
+      <c r="F331" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G273" s="7" t="s">
+      <c r="G331" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H273" s="7"/>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="6">
-        <v>273</v>
-      </c>
-      <c r="B274" s="6" t="s">
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="7">
+        <v>332</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6">
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="7">
         <v>5</v>
       </c>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="7">
-        <v>274</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D275" s="7" t="s">
+      <c r="F332" s="7"/>
+      <c r="G332" s="7"/>
+      <c r="H332" s="7"/>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="6">
+        <v>333</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7"/>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="6">
-        <v>275</v>
-      </c>
-      <c r="B276" s="6" t="s">
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="7">
+        <v>334</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D276" s="6" t="s">
+      <c r="C334" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E276" s="6" t="s">
+      <c r="E334" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="7">
-        <v>276</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D277" s="7" t="s">
+      <c r="F334" s="7"/>
+      <c r="G334" s="7"/>
+      <c r="H334" s="7"/>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="6">
+        <v>335</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
-      <c r="H277" s="7"/>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="6">
-        <v>277</v>
-      </c>
-      <c r="B278" s="6" t="s">
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="7">
+        <v>336</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6">
+      <c r="C336" s="7"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="7">
         <v>10</v>
       </c>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="7">
-        <v>278</v>
-      </c>
-      <c r="B279" s="7" t="s">
+      <c r="F336" s="7"/>
+      <c r="G336" s="7"/>
+      <c r="H336" s="7"/>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="6">
+        <v>337</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C279" s="7"/>
-      <c r="D279" s="7"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7" t="s">
+      <c r="C337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G279" s="7" t="s">
+      <c r="G337" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H279" s="7"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="6">
-        <v>279</v>
-      </c>
-      <c r="B280" s="6" t="s">
+      <c r="H337" s="6"/>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="7">
+        <v>338</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6">
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7">
         <v>10</v>
       </c>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="7">
-        <v>280</v>
-      </c>
-      <c r="B281" s="7" t="s">
+      <c r="F338" s="7"/>
+      <c r="G338" s="7"/>
+      <c r="H338" s="7"/>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="6">
+        <v>339</v>
+      </c>
+      <c r="B339" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D281" s="7" t="s">
+      <c r="C339" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7" t="s">
+      <c r="E339" s="6"/>
+      <c r="F339" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G281" s="7" t="s">
+      <c r="G339" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H281" s="7"/>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="6">
-        <v>281</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G282" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H282" s="6"/>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="7">
-        <v>282</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7">
-        <v>5</v>
-      </c>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7"/>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="6">
-        <v>283</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="7">
-        <v>284</v>
-      </c>
-      <c r="B285" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7">
-        <v>5</v>
-      </c>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="6">
-        <v>285</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-    </row>
-    <row r="287" s="4" customFormat="1" spans="1:8">
-      <c r="A287" s="7">
-        <v>286</v>
-      </c>
-      <c r="B287" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D287" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E287" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F287" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G287" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H287" s="7"/>
-    </row>
-    <row r="288" s="4" customFormat="1" spans="1:8">
-      <c r="A288" s="6">
-        <v>287</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E288" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F288" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G288" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H288" s="6"/>
-    </row>
-    <row r="289" s="4" customFormat="1" spans="1:8">
-      <c r="A289" s="7">
-        <v>288</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D289" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G289" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H289" s="7"/>
-    </row>
-    <row r="290" s="4" customFormat="1" spans="1:8">
-      <c r="A290" s="6">
-        <v>289</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H290" s="6"/>
-    </row>
-    <row r="291" s="4" customFormat="1" spans="1:8">
-      <c r="A291" s="7">
-        <v>290</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7">
-        <v>4</v>
-      </c>
-      <c r="F291" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H291" s="7"/>
-    </row>
-    <row r="292" s="4" customFormat="1" spans="1:8">
-      <c r="A292" s="6">
-        <v>291</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6"/>
-      <c r="H292" s="6"/>
-    </row>
-    <row r="293" s="4" customFormat="1" spans="1:8">
-      <c r="A293" s="7">
-        <v>292</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C293" s="7"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="7">
-        <v>8</v>
-      </c>
-      <c r="F293" s="7"/>
-      <c r="G293" s="7"/>
-      <c r="H293" s="7"/>
-    </row>
-    <row r="294" s="4" customFormat="1" spans="1:8">
-      <c r="A294" s="6">
-        <v>293</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E294" s="6"/>
-      <c r="F294" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G294" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H294" s="6"/>
-    </row>
-    <row r="295" s="4" customFormat="1" spans="1:8">
-      <c r="A295" s="7">
-        <v>294</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D295" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E295" s="7"/>
-      <c r="F295" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G295" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H295" s="7"/>
-    </row>
-    <row r="296" s="4" customFormat="1" spans="1:8">
-      <c r="A296" s="6">
-        <v>295</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G296" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H296" s="6"/>
-    </row>
-    <row r="297" s="4" customFormat="1" spans="1:8">
-      <c r="A297" s="7">
-        <v>296</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G297" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H297" s="7"/>
-    </row>
-    <row r="298" s="4" customFormat="1" spans="1:8">
-      <c r="A298" s="6">
-        <v>297</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G298" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H298" s="6"/>
-    </row>
-    <row r="299" s="4" customFormat="1" spans="1:8">
-      <c r="A299" s="7">
-        <v>298</v>
-      </c>
-      <c r="B299" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D299" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E299" s="7"/>
-      <c r="F299" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G299" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H299" s="7"/>
-    </row>
-    <row r="300" s="4" customFormat="1" spans="1:8">
-      <c r="A300" s="6">
-        <v>299</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E300" s="6"/>
-      <c r="F300" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G300" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H300" s="6"/>
-    </row>
-    <row r="301" s="4" customFormat="1" spans="1:8">
-      <c r="A301" s="7">
-        <v>300</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D301" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E301" s="7"/>
-      <c r="F301" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G301" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H301" s="7"/>
-    </row>
-    <row r="302" s="4" customFormat="1" spans="1:8">
-      <c r="A302" s="6">
-        <v>301</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F302" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G302" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H302" s="6"/>
-    </row>
-    <row r="303" s="4" customFormat="1" spans="1:8">
-      <c r="A303" s="7">
-        <v>302</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D303" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E303" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F303" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G303" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H303" s="7"/>
-    </row>
-    <row r="304" s="4" customFormat="1" spans="1:8">
-      <c r="A304" s="6">
-        <v>303</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
-      <c r="H304" s="6"/>
-    </row>
-    <row r="305" s="4" customFormat="1" spans="1:8">
-      <c r="A305" s="7">
-        <v>304</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D305" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E305" s="7">
-        <v>2</v>
-      </c>
-      <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="7"/>
-    </row>
-    <row r="306" s="4" customFormat="1" spans="1:8">
-      <c r="A306" s="6">
-        <v>305</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F306" s="6"/>
-      <c r="G306" s="6"/>
-      <c r="H306" s="6"/>
-    </row>
-    <row r="307" s="4" customFormat="1" spans="1:8">
-      <c r="A307" s="7">
-        <v>306</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D307" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E307" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F307" s="7"/>
-      <c r="G307" s="7"/>
-      <c r="H307" s="7"/>
-    </row>
-    <row r="308" s="4" customFormat="1" spans="1:8">
-      <c r="A308" s="6">
-        <v>307</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E308" s="6">
-        <v>9789045678</v>
-      </c>
-      <c r="F308" s="6"/>
-      <c r="G308" s="6"/>
-      <c r="H308" s="6"/>
-    </row>
-    <row r="309" s="4" customFormat="1" spans="1:8">
-      <c r="A309" s="7">
-        <v>308</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D309" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E309" s="7">
-        <v>21331</v>
-      </c>
-      <c r="F309" s="7"/>
-      <c r="G309" s="7"/>
-      <c r="H309" s="7"/>
-    </row>
-    <row r="310" s="4" customFormat="1" spans="1:8">
-      <c r="A310" s="6">
-        <v>309</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E310" s="6">
-        <v>97989898982</v>
-      </c>
-      <c r="F310" s="6"/>
-      <c r="G310" s="6"/>
-      <c r="H310" s="6"/>
-    </row>
-    <row r="311" s="4" customFormat="1" spans="1:8">
-      <c r="A311" s="7">
-        <v>310</v>
-      </c>
-      <c r="B311" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D311" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E311" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F311" s="7"/>
-      <c r="G311" s="7"/>
-      <c r="H311" s="7"/>
-    </row>
-    <row r="312" s="4" customFormat="1" spans="1:8">
-      <c r="A312" s="6">
-        <v>311</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F312" s="6"/>
-      <c r="G312" s="6"/>
-      <c r="H312" s="6"/>
-    </row>
-    <row r="313" s="4" customFormat="1" spans="1:8">
-      <c r="A313" s="7">
-        <v>312</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D313" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E313" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F313" s="7"/>
-      <c r="G313" s="7"/>
-      <c r="H313" s="7"/>
-    </row>
-    <row r="314" s="4" customFormat="1" spans="1:8">
-      <c r="A314" s="6">
-        <v>313</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E314" s="6"/>
-      <c r="F314" s="6"/>
-      <c r="G314" s="6"/>
-      <c r="H314" s="6"/>
-    </row>
-    <row r="315" s="4" customFormat="1" spans="1:8">
-      <c r="A315" s="7">
-        <v>314</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="7">
-        <v>5</v>
-      </c>
-      <c r="F315" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G315" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H315" s="7"/>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" s="6">
-        <v>315</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6">
-        <v>5</v>
-      </c>
-      <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
-      <c r="H316" s="6"/>
-    </row>
-    <row r="317" spans="1:8">
-      <c r="A317" s="7">
-        <v>316</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D317" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
-      <c r="G317" s="7"/>
-      <c r="H317" s="7"/>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" s="6">
-        <v>317</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E318" s="6"/>
-      <c r="F318" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G318" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H318" s="6"/>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" s="7">
-        <v>318</v>
-      </c>
-      <c r="B319" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D319" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E319" s="7"/>
-      <c r="F319" s="7"/>
-      <c r="G319" s="7"/>
-      <c r="H319" s="7"/>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="A320" s="6">
-        <v>319</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E320" s="6"/>
-      <c r="F320" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G320" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H320" s="6"/>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="A321" s="7">
-        <v>320</v>
-      </c>
-      <c r="B321" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D321" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E321" s="7">
-        <v>200</v>
-      </c>
-      <c r="F321" s="7"/>
-      <c r="G321" s="7"/>
-      <c r="H321" s="7"/>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" s="6">
-        <v>321</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F322" s="6"/>
-      <c r="G322" s="6"/>
-      <c r="H322" s="6"/>
-    </row>
-    <row r="323" spans="1:8">
-      <c r="A323" s="7">
-        <v>322</v>
-      </c>
-      <c r="B323" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D323" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E323" s="7"/>
-      <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
-      <c r="H323" s="7"/>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="A324" s="6">
-        <v>323</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E324" s="6"/>
-      <c r="F324" s="6"/>
-      <c r="G324" s="6"/>
-      <c r="H324" s="6"/>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="A325" s="7">
-        <v>324</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D325" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E325" s="7"/>
-      <c r="F325" s="7"/>
-      <c r="G325" s="7"/>
-      <c r="H325" s="7"/>
-    </row>
-    <row r="326" spans="1:8">
-      <c r="A326" s="6">
-        <v>325</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E326" s="6">
-        <v>2</v>
-      </c>
-      <c r="F326" s="6"/>
-      <c r="G326" s="6"/>
-      <c r="H326" s="6"/>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="A327" s="7">
-        <v>326</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D327" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E327" s="7">
-        <v>62711</v>
-      </c>
-      <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
-      <c r="H327" s="7"/>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="A328" s="6">
-        <v>327</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E328" s="6"/>
-      <c r="F328" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G328" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H328" s="6"/>
-    </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="7">
-        <v>328</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7">
-        <v>5</v>
-      </c>
-      <c r="F329" s="7"/>
-      <c r="G329" s="7"/>
-      <c r="H329" s="7"/>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="A330" s="6">
-        <v>329</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="7">
-        <v>330</v>
-      </c>
-      <c r="B331" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D331" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E331" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F331" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G331" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H331" s="7"/>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="A332" s="6">
-        <v>331</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G332" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H332" s="6"/>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="A333" s="7">
-        <v>332</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7">
-        <v>5</v>
-      </c>
-      <c r="F333" s="7"/>
-      <c r="G333" s="7"/>
-      <c r="H333" s="7"/>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" s="6">
-        <v>333</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
-      <c r="H334" s="6"/>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="A335" s="7">
-        <v>334</v>
-      </c>
-      <c r="B335" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D335" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E335" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
-      <c r="H335" s="7"/>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="A336" s="6">
-        <v>335</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
-      <c r="H336" s="6"/>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="7">
-        <v>336</v>
-      </c>
-      <c r="B337" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C337" s="7"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="7">
-        <v>10</v>
-      </c>
-      <c r="F337" s="7"/>
-      <c r="G337" s="7"/>
-      <c r="H337" s="7"/>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" s="6">
-        <v>337</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G338" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H338" s="6"/>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="A339" s="7">
-        <v>338</v>
-      </c>
-      <c r="B339" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C339" s="7"/>
-      <c r="D339" s="7"/>
-      <c r="E339" s="7">
-        <v>10</v>
-      </c>
-      <c r="F339" s="7"/>
-      <c r="G339" s="7"/>
-      <c r="H339" s="7"/>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="A340" s="6">
-        <v>339</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G340" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H340" s="6"/>
+      <c r="H339" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B261 B262:B1048576">
       <formula1>DataList!$C$2:$C$102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C261 C262:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
@@ -729,10 +729,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -759,16 +759,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,61 +820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,14 +836,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -880,6 +857,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -888,16 +895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,7 +924,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,13 +1002,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,19 +1056,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,133 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,27 +1134,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,11 +1157,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,6 +1189,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1202,44 +1217,29 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,130 +1251,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1724,10 +1724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1977,7 +1977,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2135,7 +2135,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2217,7 +2217,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2383,7 +2383,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2541,7 +2541,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3041,7 +3041,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -3352,689 +3352,677 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:8">
-      <c r="A84" s="6">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>4</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" s="4" customFormat="1" spans="1:8">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="C85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" s="4" customFormat="1" spans="1:8">
-      <c r="A85" s="7">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" s="4" customFormat="1" spans="1:8">
+      <c r="A86" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D86" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" s="4" customFormat="1" spans="1:8">
-      <c r="A86" s="6">
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" s="4" customFormat="1" spans="1:8">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="6" t="s">
+      <c r="B87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6" t="s">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" s="4" customFormat="1" spans="1:8">
-      <c r="A87" s="7">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="1:8">
+      <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="7" t="s">
+      <c r="B88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" s="4" customFormat="1" spans="1:8">
-      <c r="A88" s="6">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="1:8">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="B89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
+      <c r="E89" s="6"/>
+      <c r="F89" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7">
         <v>5</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="6">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="6" t="s">
+      <c r="B91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="7">
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="B92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="6">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="6" t="s">
+      <c r="B93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="7">
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="7" t="s">
+      <c r="B94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7" t="s">
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="6">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="C95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E95" s="6">
         <v>200</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="7">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="C96" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="6">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="B97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="7">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7">
-        <v>3</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="6">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7">
+        <v>5</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="7">
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="C100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="6">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="B101" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6" t="s">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="7">
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7">
         <v>2</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="6">
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="6" t="s">
+      <c r="B103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="7">
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="7" t="s">
+      <c r="C104" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="6">
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="6" t="s">
+      <c r="B105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="7">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
         <v>10</v>
       </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="6">
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B107" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6" t="s">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="7">
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B108" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7">
         <v>10</v>
       </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="6">
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B109" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="6" t="s">
+      <c r="C109" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6" t="s">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="7">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="7" t="s">
+      <c r="B110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7" t="s">
+      <c r="E110" s="7"/>
+      <c r="F110" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="6">
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6">
         <v>5</v>
       </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="7">
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="7" t="s">
+      <c r="B112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="6">
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6">
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6">
         <v>5</v>
       </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="7" t="s">
+      <c r="B114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
-      <c r="A114" s="6">
-        <v>113</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="7">
-        <v>114</v>
-      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" customFormat="1" spans="1:8">
+      <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
+        <v>4</v>
+      </c>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
     <row r="116" s="4" customFormat="1" spans="1:8">
       <c r="A116" s="6">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E116" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F116" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H116" s="6"/>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:8">
       <c r="A117" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="H117" s="7"/>
     </row>
     <row r="118" s="4" customFormat="1" spans="1:8">
       <c r="A118" s="6">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
@@ -4045,25 +4033,27 @@
       </c>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" s="4" customFormat="1" spans="1:8">
       <c r="A119" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" s="4" customFormat="1" spans="1:8">
       <c r="A120" s="6">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>20</v>
@@ -4072,38 +4062,36 @@
         <v>21</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="F120" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7">
+        <v>5</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>20</v>
@@ -4112,7 +4100,7 @@
         <v>21</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -4121,7 +4109,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>20</v>
@@ -4130,7 +4118,7 @@
         <v>21</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
@@ -4143,77 +4131,79 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="6">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="6">
-        <v>200</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="6">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E126" s="6">
+        <v>200</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
@@ -4221,89 +4211,89 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="6">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7">
+        <v>5</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="6">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7">
-        <v>5</v>
-      </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="6">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>20</v>
@@ -4312,28 +4302,28 @@
         <v>21</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="F132" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="7">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7">
+        <v>5</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
@@ -4341,7 +4331,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>20</v>
@@ -4359,15 +4349,19 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
@@ -4375,25 +4369,25 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="6">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="E136" s="6"/>
-      <c r="F136" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="7">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>11</v>
@@ -4409,85 +4403,85 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="6">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>10</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="6">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6">
-        <v>5</v>
-      </c>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="6">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>11</v>
@@ -4503,1181 +4497,1163 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
+    <row r="144" spans="1:8">
       <c r="A144" s="6">
+        <v>141</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6">
+        <v>5</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="7">
+        <v>142</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" customFormat="1" spans="1:8">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7">
+        <v>4</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" s="4" customFormat="1" spans="1:8">
+      <c r="A147" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="6" t="s">
+      <c r="C147" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F147" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G144" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H144" s="6"/>
-    </row>
-    <row r="145" s="4" customFormat="1" spans="1:8">
-      <c r="A145" s="7">
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" s="4" customFormat="1" spans="1:8">
+      <c r="A148" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D148" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E148" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G148" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" s="4" customFormat="1" spans="1:8">
-      <c r="A146" s="6">
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" s="4" customFormat="1" spans="1:8">
+      <c r="A149" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="B149" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D149" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6" t="s">
+      <c r="E149" s="6"/>
+      <c r="F149" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G146" s="6" t="s">
+      <c r="G149" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H146" s="6"/>
-    </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
-      <c r="A147" s="7">
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" s="4" customFormat="1" spans="1:8">
+      <c r="A150" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="7" t="s">
+      <c r="B150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" s="4" customFormat="1" spans="1:8">
-      <c r="A148" s="6">
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" s="4" customFormat="1" spans="1:8">
+      <c r="A151" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="B151" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6" t="s">
+      <c r="E151" s="6"/>
+      <c r="F151" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="G151" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="7">
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7">
         <v>5</v>
       </c>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="6">
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="B153" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="7">
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="7" t="s">
+      <c r="B154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7" t="s">
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="G154" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="6">
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="B155" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="7">
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="7" t="s">
+      <c r="B156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7" t="s">
+      <c r="E156" s="7"/>
+      <c r="F156" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G156" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="6">
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B157" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="6" t="s">
+      <c r="C157" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E157" s="6">
         <v>200</v>
       </c>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="7">
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155" s="7" t="s">
+      <c r="C158" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E158" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="6">
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="7">
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="6">
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B161" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D161" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="7">
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="7" t="s">
+      <c r="C162" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E162" s="7">
         <v>2</v>
       </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="6">
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B163" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D163" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E163" s="6">
         <v>62711</v>
       </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="7">
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" s="7" t="s">
+      <c r="B164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
+      <c r="E164" s="7"/>
+      <c r="F164" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="6">
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6">
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6">
         <v>5</v>
       </c>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="7">
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C166" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D166" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E166" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="6">
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="6" t="s">
+      <c r="C167" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F167" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G164" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H164" s="6"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="7">
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" s="7" t="s">
+      <c r="B168" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7" t="s">
+      <c r="E168" s="7"/>
+      <c r="F168" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="G168" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="6">
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6">
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6">
         <v>5</v>
       </c>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="7">
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="7" t="s">
+      <c r="B170" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="6">
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168" s="6" t="s">
+      <c r="C171" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="7">
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D169" s="7" t="s">
+      <c r="B172" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="6">
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6">
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6">
         <v>10</v>
       </c>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="7">
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7" t="s">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="G174" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="6">
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6">
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6">
         <v>10</v>
       </c>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="7">
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="7">
         <v>172</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="7" t="s">
+      <c r="C176" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7" t="s">
+      <c r="E176" s="7"/>
+      <c r="F176" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="G176" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="6">
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="6" t="s">
+      <c r="B177" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6" t="s">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G174" s="6" t="s">
+      <c r="G177" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H174" s="6"/>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="7">
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="7">
         <v>174</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7">
         <v>5</v>
       </c>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="6">
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C176" s="6" t="s">
+      <c r="B179" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D179" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="7">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="7">
         <v>176</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
         <v>5</v>
       </c>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="6">
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="B181" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-    </row>
-    <row r="179" s="4" customFormat="1" spans="1:8">
-      <c r="A179" s="7">
-        <v>178</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H179" s="7"/>
-    </row>
-    <row r="180" s="4" customFormat="1" spans="1:8">
-      <c r="A180" s="6">
-        <v>179</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H180" s="6"/>
-    </row>
-    <row r="181" s="4" customFormat="1" spans="1:8">
-      <c r="A181" s="7">
-        <v>180</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H181" s="7"/>
-    </row>
-    <row r="182" s="4" customFormat="1" spans="1:8">
-      <c r="A182" s="6">
-        <v>181</v>
-      </c>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" customFormat="1" spans="1:8">
+      <c r="A182" s="6"/>
       <c r="B182" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6">
+        <v>4</v>
+      </c>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
     <row r="183" s="4" customFormat="1" spans="1:8">
       <c r="A183" s="7">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H183" s="7"/>
     </row>
     <row r="184" s="4" customFormat="1" spans="1:8">
       <c r="A184" s="6">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
+      <c r="F184" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="H184" s="6"/>
     </row>
     <row r="185" s="4" customFormat="1" spans="1:8">
       <c r="A185" s="7">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7">
-        <v>8</v>
-      </c>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H185" s="7"/>
     </row>
     <row r="186" s="4" customFormat="1" spans="1:8">
       <c r="A186" s="6">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H186" s="6"/>
     </row>
     <row r="187" s="4" customFormat="1" spans="1:8">
       <c r="A187" s="7">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E187" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7">
+        <v>4</v>
+      </c>
       <c r="F187" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="H187" s="7"/>
     </row>
     <row r="188" s="4" customFormat="1" spans="1:8">
       <c r="A188" s="6">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E188" s="6"/>
-      <c r="F188" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
     <row r="189" s="4" customFormat="1" spans="1:8">
       <c r="A189" s="7">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7">
+        <v>8</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
     <row r="190" s="4" customFormat="1" spans="1:8">
       <c r="A190" s="6">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H190" s="6"/>
     </row>
     <row r="191" s="4" customFormat="1" spans="1:8">
       <c r="A191" s="7">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H191" s="7"/>
     </row>
     <row r="192" s="4" customFormat="1" spans="1:8">
       <c r="A192" s="6">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" s="4" customFormat="1" spans="1:8">
       <c r="A193" s="7">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H193" s="7"/>
     </row>
     <row r="194" s="4" customFormat="1" spans="1:8">
       <c r="A194" s="6">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H194" s="6"/>
     </row>
     <row r="195" s="4" customFormat="1" spans="1:8">
       <c r="A195" s="7">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E195" s="7"/>
       <c r="F195" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H195" s="7"/>
     </row>
     <row r="196" s="4" customFormat="1" spans="1:8">
       <c r="A196" s="6">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
+      <c r="F196" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="H196" s="6"/>
     </row>
     <row r="197" s="4" customFormat="1" spans="1:8">
       <c r="A197" s="7">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E197" s="7">
-        <v>2</v>
-      </c>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H197" s="7"/>
     </row>
     <row r="198" s="4" customFormat="1" spans="1:8">
       <c r="A198" s="6">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H198" s="6"/>
     </row>
     <row r="199" s="4" customFormat="1" spans="1:8">
       <c r="A199" s="7">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E199" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="H199" s="7"/>
     </row>
     <row r="200" s="4" customFormat="1" spans="1:8">
       <c r="A200" s="6">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E200" s="6">
-        <v>9789045678</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
     <row r="201" s="4" customFormat="1" spans="1:8">
       <c r="A201" s="7">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E201" s="7">
-        <v>21331</v>
+        <v>2</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
@@ -5685,19 +5661,19 @@
     </row>
     <row r="202" s="4" customFormat="1" spans="1:8">
       <c r="A202" s="6">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E202" s="6">
-        <v>97989898982</v>
+        <v>119</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -5705,19 +5681,19 @@
     </row>
     <row r="203" s="4" customFormat="1" spans="1:8">
       <c r="A203" s="7">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="E203" s="7">
+        <v>10001</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
@@ -5725,19 +5701,19 @@
     </row>
     <row r="204" s="4" customFormat="1" spans="1:8">
       <c r="A204" s="6">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="E204" s="6">
+        <v>9789045678</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -5745,19 +5721,19 @@
     </row>
     <row r="205" s="4" customFormat="1" spans="1:8">
       <c r="A205" s="7">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="E205" s="7">
+        <v>21331</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -5765,181 +5741,181 @@
     </row>
     <row r="206" s="4" customFormat="1" spans="1:8">
       <c r="A206" s="6">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E206" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E206" s="6">
+        <v>97989898982</v>
+      </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
     <row r="207" s="4" customFormat="1" spans="1:8">
       <c r="A207" s="7">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="7">
-        <v>5</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" s="4" customFormat="1" spans="1:8">
       <c r="A208" s="6">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" s="4" customFormat="1" spans="1:8">
       <c r="A209" s="7">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E209" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" s="4" customFormat="1" spans="1:8">
       <c r="A210" s="6">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="E210" s="6"/>
-      <c r="F210" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" s="4" customFormat="1" spans="1:8">
       <c r="A211" s="7">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7">
+        <v>5</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" s="7"/>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="6">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G212" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6">
+        <v>5</v>
+      </c>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E213" s="7">
-        <v>200</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="6">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>20</v>
@@ -5948,48 +5924,50 @@
         <v>21</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E215" s="7"/>
-      <c r="F215" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
       <c r="H215" s="7"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="6">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6">
-        <v>5</v>
-      </c>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H216" s="6"/>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="E217" s="7">
+        <v>200</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
@@ -5997,31 +5975,27 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="6">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>20</v>
@@ -6043,7 +6017,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="6">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>11</v>
@@ -6059,45 +6033,51 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E221" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="6">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>20</v>
@@ -6106,16 +6086,20 @@
         <v>21</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
+      <c r="F223" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H223" s="7"/>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="6">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>11</v>
@@ -6123,7 +6107,7 @@
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -6131,33 +6115,37 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E225" s="7"/>
-      <c r="F225" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
       <c r="H225" s="7"/>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="6">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -6165,101 +6153,97 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E227" s="7"/>
-      <c r="F227" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
       <c r="H227" s="7"/>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="6">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6">
+        <v>10</v>
+      </c>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
-      <c r="E229" s="7">
-        <v>5</v>
-      </c>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H229" s="7"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="6">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E230" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6">
+        <v>10</v>
+      </c>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7">
-        <v>5</v>
-      </c>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="H231" s="7"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="6">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>20</v>
@@ -6268,1426 +6252,1392 @@
         <v>21</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E232" s="6"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
+      <c r="F232" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" s="4" customFormat="1" spans="1:8">
+    <row r="233" spans="1:8">
       <c r="A233" s="7">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7">
+        <v>5</v>
+      </c>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" s="4" customFormat="1" spans="1:8">
+    <row r="234" spans="1:8">
       <c r="A234" s="6">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D234" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="7">
+        <v>230</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7">
+        <v>5</v>
+      </c>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="6">
+        <v>231</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" customFormat="1" spans="1:8">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6">
+        <v>4</v>
+      </c>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238" s="4" customFormat="1" spans="1:8">
+      <c r="A238" s="7">
+        <v>232</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" s="7"/>
+    </row>
+    <row r="239" s="4" customFormat="1" spans="1:8">
+      <c r="A239" s="6">
+        <v>233</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E239" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="F239" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G234" s="6" t="s">
+      <c r="G239" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H234" s="6"/>
-    </row>
-    <row r="235" s="4" customFormat="1" spans="1:8">
-      <c r="A235" s="7">
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" s="4" customFormat="1" spans="1:8">
+      <c r="A240" s="7">
         <v>234</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B240" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7" t="s">
+      <c r="E240" s="7"/>
+      <c r="F240" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G235" s="7" t="s">
+      <c r="G240" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H235" s="7"/>
-    </row>
-    <row r="236" s="4" customFormat="1" spans="1:8">
-      <c r="A236" s="6">
+      <c r="H240" s="7"/>
+    </row>
+    <row r="241" s="4" customFormat="1" spans="1:8">
+      <c r="A241" s="6">
         <v>235</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C236" s="6" t="s">
+      <c r="B241" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D236" s="6" t="s">
+      <c r="D241" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6" t="s">
+      <c r="E241" s="6"/>
+      <c r="F241" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G236" s="6" t="s">
+      <c r="G241" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H236" s="6"/>
-    </row>
-    <row r="237" s="4" customFormat="1" spans="1:8">
-      <c r="A237" s="7">
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" s="4" customFormat="1" spans="1:8">
+      <c r="A242" s="7">
         <v>236</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B242" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7">
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7">
         <v>4</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="F242" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G237" s="7" t="s">
+      <c r="G242" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H237" s="7"/>
-    </row>
-    <row r="238" s="4" customFormat="1" spans="1:8">
-      <c r="A238" s="6">
+      <c r="H242" s="7"/>
+    </row>
+    <row r="243" s="4" customFormat="1" spans="1:8">
+      <c r="A243" s="6">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D238" s="6" t="s">
+      <c r="B243" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
-    </row>
-    <row r="239" s="4" customFormat="1" spans="1:8">
-      <c r="A239" s="7">
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" s="4" customFormat="1" spans="1:8">
+      <c r="A244" s="7">
         <v>238</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B244" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7">
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7">
         <v>8</v>
       </c>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-    </row>
-    <row r="240" s="4" customFormat="1" spans="1:8">
-      <c r="A240" s="6">
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+    </row>
+    <row r="245" s="4" customFormat="1" spans="1:8">
+      <c r="A245" s="6">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B245" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D240" s="6" t="s">
+      <c r="C245" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6" t="s">
+      <c r="E245" s="6"/>
+      <c r="F245" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G240" s="6" t="s">
+      <c r="G245" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H240" s="6"/>
-    </row>
-    <row r="241" s="4" customFormat="1" spans="1:8">
-      <c r="A241" s="7">
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" s="4" customFormat="1" spans="1:8">
+      <c r="A246" s="7">
         <v>240</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B246" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D241" s="7" t="s">
+      <c r="C246" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7" t="s">
+      <c r="E246" s="7"/>
+      <c r="F246" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G241" s="7" t="s">
+      <c r="G246" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H241" s="7"/>
-    </row>
-    <row r="242" s="4" customFormat="1" spans="1:8">
-      <c r="A242" s="6">
+      <c r="H246" s="7"/>
+    </row>
+    <row r="247" s="4" customFormat="1" spans="1:8">
+      <c r="A247" s="6">
         <v>241</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B247" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D242" s="6" t="s">
+      <c r="C247" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6" t="s">
+      <c r="E247" s="6"/>
+      <c r="F247" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G242" s="6" t="s">
+      <c r="G247" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H242" s="6"/>
-    </row>
-    <row r="243" s="4" customFormat="1" spans="1:8">
-      <c r="A243" s="7">
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248" s="4" customFormat="1" spans="1:8">
+      <c r="A248" s="7">
         <v>242</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B248" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D243" s="7" t="s">
+      <c r="C248" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7" t="s">
+      <c r="E248" s="7"/>
+      <c r="F248" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G243" s="7" t="s">
+      <c r="G248" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H243" s="7"/>
-    </row>
-    <row r="244" s="4" customFormat="1" spans="1:8">
-      <c r="A244" s="6">
+      <c r="H248" s="7"/>
+    </row>
+    <row r="249" s="4" customFormat="1" spans="1:8">
+      <c r="A249" s="6">
         <v>243</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B249" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D244" s="6" t="s">
+      <c r="C249" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6" t="s">
+      <c r="E249" s="6"/>
+      <c r="F249" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G244" s="6" t="s">
+      <c r="G249" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" s="4" customFormat="1" spans="1:8">
-      <c r="A245" s="7">
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" s="4" customFormat="1" spans="1:8">
+      <c r="A250" s="7">
         <v>244</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D245" s="7" t="s">
+      <c r="B250" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7" t="s">
+      <c r="E250" s="7"/>
+      <c r="F250" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G245" s="7" t="s">
+      <c r="G250" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H245" s="7"/>
-    </row>
-    <row r="246" s="4" customFormat="1" spans="1:8">
-      <c r="A246" s="6">
+      <c r="H250" s="7"/>
+    </row>
+    <row r="251" s="4" customFormat="1" spans="1:8">
+      <c r="A251" s="6">
         <v>245</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D246" s="6" t="s">
+      <c r="B251" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6" t="s">
+      <c r="E251" s="6"/>
+      <c r="F251" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G246" s="6" t="s">
+      <c r="G251" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H246" s="6"/>
-    </row>
-    <row r="247" s="4" customFormat="1" spans="1:8">
-      <c r="A247" s="7">
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252" s="4" customFormat="1" spans="1:8">
+      <c r="A252" s="7">
         <v>246</v>
       </c>
-      <c r="B247" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D247" s="7" t="s">
+      <c r="B252" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7" t="s">
+      <c r="E252" s="7"/>
+      <c r="F252" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G247" s="7" t="s">
+      <c r="G252" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H247" s="7"/>
-    </row>
-    <row r="248" s="4" customFormat="1" spans="1:8">
-      <c r="A248" s="6">
+      <c r="H252" s="7"/>
+    </row>
+    <row r="253" s="4" customFormat="1" spans="1:8">
+      <c r="A253" s="6">
         <v>247</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B253" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D248" s="6" t="s">
+      <c r="C253" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="E253" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F248" s="6" t="s">
+      <c r="F253" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G248" s="6" t="s">
+      <c r="G253" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H248" s="6"/>
-    </row>
-    <row r="249" s="4" customFormat="1" spans="1:8">
-      <c r="A249" s="7">
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254" s="4" customFormat="1" spans="1:8">
+      <c r="A254" s="7">
         <v>248</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B254" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D249" s="7" t="s">
+      <c r="C254" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="E254" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F254" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="G254" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H249" s="7"/>
-    </row>
-    <row r="250" s="4" customFormat="1" spans="1:8">
-      <c r="A250" s="6">
+      <c r="H254" s="7"/>
+    </row>
+    <row r="255" s="4" customFormat="1" spans="1:8">
+      <c r="A255" s="6">
         <v>249</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B255" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C250" s="6" t="s">
+      <c r="C255" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="D255" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-      <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-    </row>
-    <row r="251" s="4" customFormat="1" spans="1:8">
-      <c r="A251" s="7">
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256" s="4" customFormat="1" spans="1:8">
+      <c r="A256" s="7">
         <v>250</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B256" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C251" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D251" s="7" t="s">
+      <c r="C256" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E256" s="7">
         <v>2</v>
       </c>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-    </row>
-    <row r="252" s="4" customFormat="1" spans="1:8">
-      <c r="A252" s="6">
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+    </row>
+    <row r="257" s="4" customFormat="1" spans="1:8">
+      <c r="A257" s="6">
         <v>251</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B257" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D252" s="6" t="s">
+      <c r="C257" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="E257" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F252" s="6"/>
-      <c r="G252" s="6"/>
-      <c r="H252" s="6"/>
-    </row>
-    <row r="253" s="4" customFormat="1" spans="1:8">
-      <c r="A253" s="7">
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258" s="4" customFormat="1" spans="1:8">
+      <c r="A258" s="7">
         <v>252</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B258" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C258" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D258" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E258" s="7">
         <v>10001</v>
       </c>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-    </row>
-    <row r="254" s="4" customFormat="1" spans="1:8">
-      <c r="A254" s="6">
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+    </row>
+    <row r="259" s="4" customFormat="1" spans="1:8">
+      <c r="A259" s="6">
         <v>253</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B259" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C254" s="6" t="s">
+      <c r="C259" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D254" s="6" t="s">
+      <c r="D259" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E254" s="6">
+      <c r="E259" s="6">
         <v>9789045678</v>
       </c>
-      <c r="F254" s="6"/>
-      <c r="G254" s="6"/>
-      <c r="H254" s="6"/>
-    </row>
-    <row r="255" s="4" customFormat="1" spans="1:8">
-      <c r="A255" s="7">
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260" s="4" customFormat="1" spans="1:8">
+      <c r="A260" s="7">
         <v>254</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B260" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C260" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D260" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E260" s="7">
         <v>21331</v>
       </c>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
-    </row>
-    <row r="256" s="4" customFormat="1" spans="1:8">
-      <c r="A256" s="6">
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7"/>
+    </row>
+    <row r="261" s="4" customFormat="1" spans="1:8">
+      <c r="A261" s="6">
         <v>255</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B261" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C261" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="D261" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E256" s="6">
+      <c r="E261" s="6">
         <v>97989898982</v>
       </c>
-      <c r="F256" s="6"/>
-      <c r="G256" s="6"/>
-      <c r="H256" s="6"/>
-    </row>
-    <row r="257" s="4" customFormat="1" spans="1:8">
-      <c r="A257" s="7">
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262" s="4" customFormat="1" spans="1:8">
+      <c r="A262" s="7">
         <v>256</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B262" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C262" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D262" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E257" s="7" t="s">
+      <c r="E262" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-    </row>
-    <row r="258" s="4" customFormat="1" spans="1:8">
-      <c r="A258" s="6">
-        <v>257</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-    </row>
-    <row r="259" s="4" customFormat="1" spans="1:8">
-      <c r="A259" s="7">
-        <v>258</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E259" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7"/>
-    </row>
-    <row r="260" s="4" customFormat="1" spans="1:8">
-      <c r="A260" s="6">
-        <v>259</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
-    </row>
-    <row r="261" s="4" customFormat="1" spans="1:8">
-      <c r="A261" s="7">
-        <v>260</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="7">
-        <v>5</v>
-      </c>
-      <c r="F261" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G261" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" s="7"/>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="7">
-        <v>262</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D262" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" s="4" customFormat="1" spans="1:8">
       <c r="A263" s="6">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
       <c r="H263" s="6"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" s="4" customFormat="1" spans="1:8">
       <c r="A264" s="7">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E264" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" s="4" customFormat="1" spans="1:8">
       <c r="A265" s="6">
+        <v>259</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266" s="4" customFormat="1" spans="1:8">
+      <c r="A266" s="7">
+        <v>260</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7">
+        <v>5</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" s="7"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="7">
+        <v>262</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
+      <c r="H267" s="7"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="6">
+        <v>263</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="7">
+        <v>264</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="6">
         <v>265</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D265" s="6" t="s">
+      <c r="B270" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6" t="s">
+      <c r="E270" s="6"/>
+      <c r="F270" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G265" s="6" t="s">
+      <c r="G270" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H265" s="6"/>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="7">
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="7">
         <v>266</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B271" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C266" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D266" s="7" t="s">
+      <c r="C271" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E266" s="7">
+      <c r="E271" s="7">
         <v>200</v>
       </c>
-      <c r="F266" s="7"/>
-      <c r="G266" s="7"/>
-      <c r="H266" s="7"/>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="6">
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="7"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="6">
         <v>267</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B272" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D267" s="6" t="s">
+      <c r="C272" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E267" s="6" t="s">
+      <c r="E272" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F267" s="6"/>
-      <c r="G267" s="6"/>
-      <c r="H267" s="6"/>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="7">
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="7">
         <v>268</v>
       </c>
-      <c r="B268" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D268" s="7" t="s">
+      <c r="B273" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7" t="s">
+      <c r="E273" s="7"/>
+      <c r="F273" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G268" s="7" t="s">
+      <c r="G273" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H268" s="7"/>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="6">
+      <c r="H273" s="7"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="6">
         <v>269</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B274" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6">
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6">
         <v>5</v>
       </c>
-      <c r="F269" s="6"/>
-      <c r="G269" s="6"/>
-      <c r="H269" s="6"/>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="7">
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="7">
         <v>270</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B275" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C275" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D275" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="E275" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7"/>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="6">
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="6">
         <v>271</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B276" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D271" s="6" t="s">
+      <c r="C276" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E271" s="6" t="s">
+      <c r="E276" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F271" s="6" t="s">
+      <c r="F276" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G271" s="6" t="s">
+      <c r="G276" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H271" s="6"/>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="7">
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="7">
         <v>272</v>
       </c>
-      <c r="B272" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D272" s="7" t="s">
+      <c r="B277" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7" t="s">
+      <c r="E277" s="7"/>
+      <c r="F277" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G272" s="7" t="s">
+      <c r="G277" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H272" s="7"/>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="6">
+      <c r="H277" s="7"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="6">
         <v>273</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B278" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6">
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6">
         <v>5</v>
       </c>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
-      <c r="H273" s="6"/>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="7">
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="7">
         <v>274</v>
       </c>
-      <c r="B274" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D274" s="7" t="s">
+      <c r="B279" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="7"/>
-      <c r="H274" s="7"/>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="6">
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" s="7"/>
+      <c r="H279" s="7"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="6">
         <v>275</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B280" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D275" s="6" t="s">
+      <c r="C280" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E275" s="6" t="s">
+      <c r="E280" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="7">
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="7">
         <v>276</v>
       </c>
-      <c r="B276" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D276" s="7" t="s">
+      <c r="B281" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="7"/>
-      <c r="H276" s="7"/>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="6">
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" s="7"/>
+      <c r="H281" s="7"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="6">
         <v>277</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B282" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6">
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6">
         <v>10</v>
       </c>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="7">
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="7">
         <v>278</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B283" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="7"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7" t="s">
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G278" s="7" t="s">
+      <c r="G283" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H278" s="7"/>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="6">
+      <c r="H283" s="7"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="6">
         <v>279</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B284" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6">
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6">
         <v>10</v>
       </c>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="7">
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="7">
         <v>280</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B285" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C280" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D280" s="7" t="s">
+      <c r="C285" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E280" s="7"/>
-      <c r="F280" s="7" t="s">
+      <c r="E285" s="7"/>
+      <c r="F285" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G280" s="7" t="s">
+      <c r="G285" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H280" s="7"/>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="6">
+      <c r="H285" s="7"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="6">
         <v>281</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D281" s="6" t="s">
+      <c r="B286" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6" t="s">
+      <c r="E286" s="6"/>
+      <c r="F286" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G281" s="6" t="s">
+      <c r="G286" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H281" s="6"/>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="7">
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="7">
         <v>282</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B287" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C282" s="7"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="7">
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7">
         <v>5</v>
       </c>
-      <c r="F282" s="7"/>
-      <c r="G282" s="7"/>
-      <c r="H282" s="7"/>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="6">
+      <c r="F287" s="7"/>
+      <c r="G287" s="7"/>
+      <c r="H287" s="7"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="6">
         <v>283</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C283" s="6" t="s">
+      <c r="B288" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D283" s="6" t="s">
+      <c r="D288" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="7">
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="7">
         <v>284</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B289" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7">
         <v>5</v>
       </c>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="7"/>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="6">
+      <c r="F289" s="7"/>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="6">
         <v>285</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D285" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-    </row>
-    <row r="286" s="4" customFormat="1" spans="1:8">
-      <c r="A286" s="7">
-        <v>286</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D286" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E286" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F286" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G286" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H286" s="7"/>
-    </row>
-    <row r="287" s="4" customFormat="1" spans="1:8">
-      <c r="A287" s="6">
-        <v>287</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E287" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F287" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G287" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H287" s="6"/>
-    </row>
-    <row r="288" s="4" customFormat="1" spans="1:8">
-      <c r="A288" s="7">
-        <v>288</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D288" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G288" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H288" s="7"/>
-    </row>
-    <row r="289" s="4" customFormat="1" spans="1:8">
-      <c r="A289" s="6">
-        <v>289</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H289" s="6"/>
-    </row>
-    <row r="290" s="4" customFormat="1" spans="1:8">
-      <c r="A290" s="7">
-        <v>290</v>
-      </c>
-      <c r="B290" s="7" t="s">
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" customFormat="1" spans="1:8">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C290" s="7"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7">
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6">
         <v>4</v>
       </c>
-      <c r="F290" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H290" s="7"/>
-    </row>
-    <row r="291" s="4" customFormat="1" spans="1:8">
-      <c r="A291" s="6">
-        <v>291</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
     </row>
     <row r="292" s="4" customFormat="1" spans="1:8">
       <c r="A292" s="7">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7">
-        <v>8</v>
-      </c>
-      <c r="F292" s="7"/>
-      <c r="G292" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="H292" s="7"/>
     </row>
     <row r="293" s="4" customFormat="1" spans="1:8">
       <c r="A293" s="6">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E293" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="F293" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H293" s="6"/>
     </row>
     <row r="294" s="4" customFormat="1" spans="1:8">
       <c r="A294" s="7">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B294" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H294" s="7"/>
     </row>
     <row r="295" s="4" customFormat="1" spans="1:8">
       <c r="A295" s="6">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H295" s="6"/>
     </row>
     <row r="296" s="4" customFormat="1" spans="1:8">
       <c r="A296" s="7">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D296" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E296" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C296" s="7"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7">
+        <v>4</v>
+      </c>
       <c r="F296" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H296" s="7"/>
     </row>
     <row r="297" s="4" customFormat="1" spans="1:8">
       <c r="A297" s="6">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E297" s="6"/>
-      <c r="F297" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G297" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
       <c r="H297" s="6"/>
     </row>
     <row r="298" s="4" customFormat="1" spans="1:8">
       <c r="A298" s="7">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E298" s="7"/>
-      <c r="F298" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G298" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7">
+        <v>8</v>
+      </c>
+      <c r="F298" s="7"/>
+      <c r="G298" s="7"/>
       <c r="H298" s="7"/>
     </row>
     <row r="299" s="4" customFormat="1" spans="1:8">
       <c r="A299" s="6">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H299" s="6"/>
     </row>
     <row r="300" s="4" customFormat="1" spans="1:8">
       <c r="A300" s="7">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H300" s="7"/>
     </row>
     <row r="301" s="4" customFormat="1" spans="1:8">
       <c r="A301" s="6">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E301" s="6"/>
       <c r="F301" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H301" s="6"/>
     </row>
     <row r="302" s="4" customFormat="1" spans="1:8">
       <c r="A302" s="7">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>47</v>
@@ -7696,172 +7646,186 @@
         <v>21</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E302" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E302" s="7"/>
       <c r="F302" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H302" s="7"/>
     </row>
     <row r="303" s="4" customFormat="1" spans="1:8">
       <c r="A303" s="6">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E303" s="6"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="6"/>
+      <c r="F303" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="H303" s="6"/>
     </row>
     <row r="304" s="4" customFormat="1" spans="1:8">
       <c r="A304" s="7">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E304" s="7">
-        <v>2</v>
-      </c>
-      <c r="F304" s="7"/>
-      <c r="G304" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="E304" s="7"/>
+      <c r="F304" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G304" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H304" s="7"/>
     </row>
     <row r="305" s="4" customFormat="1" spans="1:8">
       <c r="A305" s="6">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E305" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F305" s="6"/>
-      <c r="G305" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="H305" s="6"/>
     </row>
     <row r="306" s="4" customFormat="1" spans="1:8">
       <c r="A306" s="7">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E306" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F306" s="7"/>
-      <c r="G306" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="E306" s="7"/>
+      <c r="F306" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G306" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H306" s="7"/>
     </row>
     <row r="307" s="4" customFormat="1" spans="1:8">
       <c r="A307" s="6">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E307" s="6">
-        <v>9789045678</v>
-      </c>
-      <c r="F307" s="6"/>
-      <c r="G307" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="H307" s="6"/>
     </row>
     <row r="308" s="4" customFormat="1" spans="1:8">
       <c r="A308" s="7">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E308" s="7">
-        <v>21331</v>
-      </c>
-      <c r="F308" s="7"/>
-      <c r="G308" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="H308" s="7"/>
     </row>
     <row r="309" s="4" customFormat="1" spans="1:8">
       <c r="A309" s="6">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E309" s="6">
-        <v>97989898982</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
     </row>
     <row r="310" s="4" customFormat="1" spans="1:8">
       <c r="A310" s="7">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E310" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="E310" s="7">
+        <v>2</v>
       </c>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
@@ -7869,19 +7833,19 @@
     </row>
     <row r="311" s="4" customFormat="1" spans="1:8">
       <c r="A311" s="6">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -7889,19 +7853,19 @@
     </row>
     <row r="312" s="4" customFormat="1" spans="1:8">
       <c r="A312" s="7">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E312" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="E312" s="7">
+        <v>10001</v>
       </c>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
@@ -7909,173 +7873,173 @@
     </row>
     <row r="313" s="4" customFormat="1" spans="1:8">
       <c r="A313" s="6">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E313" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="E313" s="6">
+        <v>9789045678</v>
+      </c>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
     </row>
     <row r="314" s="4" customFormat="1" spans="1:8">
       <c r="A314" s="7">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C314" s="7"/>
-      <c r="D314" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E314" s="7">
-        <v>5</v>
-      </c>
-      <c r="F314" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G314" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>21331</v>
+      </c>
+      <c r="F314" s="7"/>
+      <c r="G314" s="7"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" s="4" customFormat="1" spans="1:8">
       <c r="A315" s="6">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E315" s="6">
-        <v>5</v>
+        <v>97989898982</v>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" s="4" customFormat="1" spans="1:8">
       <c r="A316" s="7">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E316" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" s="4" customFormat="1" spans="1:8">
       <c r="A317" s="6">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E317" s="6"/>
-      <c r="F317" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G317" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
       <c r="H317" s="6"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" s="4" customFormat="1" spans="1:8">
       <c r="A318" s="7">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E318" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" s="4" customFormat="1" spans="1:8">
       <c r="A319" s="6">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="E319" s="6"/>
-      <c r="F319" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G319" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" s="4" customFormat="1" spans="1:8">
       <c r="A320" s="7">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D320" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C320" s="7"/>
+      <c r="D320" s="7"/>
       <c r="E320" s="7">
-        <v>200</v>
-      </c>
-      <c r="F320" s="7"/>
-      <c r="G320" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H320" s="7"/>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="6">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="C321" s="6"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6">
+        <v>5</v>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
@@ -8083,16 +8047,16 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="7">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
@@ -8101,34 +8065,38 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="6">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E323" s="6"/>
-      <c r="F323" s="6"/>
-      <c r="G323" s="6"/>
+      <c r="F323" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H323" s="6"/>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="7">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
@@ -8137,39 +8105,41 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="6">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E325" s="6">
-        <v>2</v>
-      </c>
-      <c r="F325" s="6"/>
-      <c r="G325" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H325" s="6"/>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="7">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E326" s="7">
-        <v>62711</v>
+        <v>200</v>
       </c>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
@@ -8177,45 +8147,45 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="6">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E327" s="6"/>
-      <c r="F327" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G327" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
       <c r="H327" s="6"/>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="7">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7">
-        <v>5</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="6">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>47</v>
@@ -8224,72 +8194,66 @@
         <v>15</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
       <c r="H329" s="6"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="7">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E330" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F330" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G330" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="7"/>
       <c r="H330" s="7"/>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="6">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E331" s="6"/>
-      <c r="F331" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G331" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E331" s="6">
+        <v>2</v>
+      </c>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
       <c r="H331" s="6"/>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="7">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C332" s="7"/>
-      <c r="D332" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E332" s="7">
-        <v>5</v>
+        <v>62711</v>
       </c>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
@@ -8297,7 +8261,7 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="6">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>20</v>
@@ -8306,28 +8270,28 @@
         <v>21</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E333" s="6"/>
-      <c r="F333" s="6"/>
-      <c r="G333" s="6"/>
+      <c r="F333" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H333" s="6"/>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="7">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D334" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E334" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7">
+        <v>5</v>
       </c>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
@@ -8335,59 +8299,73 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="6">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E335" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C336" s="7"/>
-      <c r="D336" s="7"/>
-      <c r="E336" s="7">
-        <v>10</v>
-      </c>
-      <c r="F336" s="7"/>
-      <c r="G336" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E336" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="H336" s="7"/>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="6">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H337" s="6"/>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>11</v>
@@ -8395,7 +8373,7 @@
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
@@ -8403,32 +8381,138 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="6">
+        <v>333</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="7">
+        <v>334</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E340" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F340" s="7"/>
+      <c r="G340" s="7"/>
+      <c r="H340" s="7"/>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="6">
+        <v>335</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="7">
+        <v>336</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7">
+        <v>10</v>
+      </c>
+      <c r="F342" s="7"/>
+      <c r="G342" s="7"/>
+      <c r="H342" s="7"/>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="6">
+        <v>337</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G343" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="7">
+        <v>338</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="7"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7">
+        <v>10</v>
+      </c>
+      <c r="F344" s="7"/>
+      <c r="G344" s="7"/>
+      <c r="H344" s="7"/>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="6">
         <v>339</v>
       </c>
-      <c r="B339" s="6" t="s">
+      <c r="B345" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C339" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D339" s="6" t="s">
+      <c r="C345" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D345" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E339" s="6"/>
-      <c r="F339" s="6" t="s">
+      <c r="E345" s="6"/>
+      <c r="F345" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G339" s="6" t="s">
+      <c r="G345" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H339" s="6"/>
+      <c r="H345" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B261 B262:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B115 B146 B182 B237 B291 B1:B83 B85:B114 B116:B145 B147:B181 B183:B236 B238:B266 B267:B290 B292:B1048576">
       <formula1>DataList!$C$2:$C$102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C261 C262:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84 C115 C146 C182 C237 C291 C1:C83 C85:C114 C116:C145 C147:C181 C183:C236 C238:C266 C267:C290 C292:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>Step No</t>
   </si>
@@ -256,37 +256,40 @@
     <t>Search clicked</t>
   </si>
   <si>
+    <t>PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH_FIRST</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
     <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
   </si>
   <si>
     <t>FACILITY/PRACTICE_NAME</t>
@@ -731,10 +734,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +763,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -773,42 +781,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,8 +804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,29 +814,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +874,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,11 +903,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -924,25 +932,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,55 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1022,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,49 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,19 +1100,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,56 +1141,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,11 +1170,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,16 +1229,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,134 +1259,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1387,6 +1395,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,8 +1735,8 @@
   <sheetPr/>
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3258,7 +3267,7 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -3296,7 +3305,7 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -3330,7 +3339,7 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -3352,7 +3361,9 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:8">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
       <c r="B84" s="7" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3378,7 @@
     </row>
     <row r="85" s="4" customFormat="1" spans="1:8">
       <c r="A85" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>41</v>
@@ -3375,7 +3386,7 @@
       <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -3390,8 +3401,8 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" s="4" customFormat="1" spans="1:8">
-      <c r="A86" s="7">
-        <v>84</v>
+      <c r="A86" s="6">
+        <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>14</v>
@@ -3415,7 +3426,7 @@
     </row>
     <row r="87" s="4" customFormat="1" spans="1:8">
       <c r="A87" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>20</v>
@@ -3436,8 +3447,8 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="1:8">
-      <c r="A88" s="7">
-        <v>86</v>
+      <c r="A88" s="6">
+        <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>20</v>
@@ -3455,7 +3466,7 @@
     </row>
     <row r="89" s="4" customFormat="1" spans="1:8">
       <c r="A89" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>20</v>
@@ -3476,8 +3487,8 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="7">
-        <v>88</v>
+      <c r="A90" s="6">
+        <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>11</v>
@@ -3493,7 +3504,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>20</v>
@@ -3510,8 +3521,8 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="7">
-        <v>90</v>
+      <c r="A92" s="6">
+        <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>20</v>
@@ -3533,7 +3544,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>20</v>
@@ -3550,8 +3561,8 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7">
-        <v>92</v>
+      <c r="A94" s="6">
+        <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>20</v>
@@ -3573,7 +3584,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>14</v>
@@ -3592,8 +3603,8 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="7">
-        <v>94</v>
+      <c r="A96" s="6">
+        <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>41</v>
@@ -3613,7 +3624,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>20</v>
@@ -3634,8 +3645,8 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
-        <v>96</v>
+      <c r="A98" s="6">
+        <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>11</v>
@@ -3651,7 +3662,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>47</v>
@@ -3670,8 +3681,8 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="7">
-        <v>98</v>
+      <c r="A100" s="6">
+        <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>50</v>
@@ -3695,7 +3706,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>20</v>
@@ -3716,8 +3727,8 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="7">
-        <v>100</v>
+      <c r="A102" s="6">
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>11</v>
@@ -3733,7 +3744,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>20</v>
@@ -3750,8 +3761,8 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="7">
-        <v>102</v>
+      <c r="A104" s="6">
+        <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>47</v>
@@ -3771,7 +3782,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>20</v>
@@ -3788,8 +3799,8 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="7">
-        <v>104</v>
+      <c r="A106" s="6">
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>11</v>
@@ -3805,7 +3816,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>58</v>
@@ -3822,8 +3833,8 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="7">
-        <v>106</v>
+      <c r="A108" s="6">
+        <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>11</v>
@@ -3839,7 +3850,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>61</v>
@@ -3860,8 +3871,8 @@
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
-        <v>108</v>
+      <c r="A110" s="6">
+        <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>20</v>
@@ -3974,7 +3985,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>78</v>
@@ -4572,7 +4583,7 @@
         <v>21</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>78</v>
@@ -5264,7 +5275,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>78</v>
@@ -5310,14 +5321,14 @@
         <v>15</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -5374,7 +5385,7 @@
         <v>21</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -5408,14 +5419,14 @@
         <v>21</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H190" s="6"/>
     </row>
@@ -5430,11 +5441,11 @@
         <v>21</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>84</v>
@@ -5446,20 +5457,20 @@
         <v>187</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H192" s="6"/>
     </row>
@@ -5474,14 +5485,14 @@
         <v>21</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -5490,20 +5501,20 @@
         <v>189</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H194" s="6"/>
     </row>
@@ -5518,14 +5529,14 @@
         <v>21</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -5540,14 +5551,14 @@
         <v>21</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H196" s="6"/>
     </row>
@@ -5562,14 +5573,14 @@
         <v>21</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -5584,16 +5595,16 @@
         <v>21</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H198" s="6"/>
     </row>
@@ -5608,16 +5619,16 @@
         <v>21</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -5632,7 +5643,7 @@
         <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -5650,7 +5661,7 @@
         <v>21</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E201" s="7">
         <v>2</v>
@@ -5670,10 +5681,10 @@
         <v>21</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -5690,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E203" s="7">
         <v>10001</v>
@@ -5710,7 +5721,7 @@
         <v>15</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E204" s="6">
         <v>9789045678</v>
@@ -5730,7 +5741,7 @@
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E205" s="7">
         <v>21331</v>
@@ -5750,7 +5761,7 @@
         <v>15</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E206" s="6">
         <v>97989898982</v>
@@ -5770,10 +5781,10 @@
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
@@ -5790,10 +5801,10 @@
         <v>15</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -5810,10 +5821,10 @@
         <v>15</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
@@ -5830,7 +5841,7 @@
         <v>15</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -5850,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>13</v>
@@ -6356,7 +6367,7 @@
         <v>21</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>78</v>
@@ -6404,14 +6415,14 @@
         <v>15</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -6468,7 +6479,7 @@
         <v>21</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -6502,14 +6513,14 @@
         <v>21</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H245" s="6"/>
     </row>
@@ -6524,11 +6535,11 @@
         <v>21</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E246" s="7"/>
       <c r="F246" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>84</v>
@@ -6540,20 +6551,20 @@
         <v>241</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E247" s="6"/>
       <c r="F247" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H247" s="6"/>
     </row>
@@ -6568,14 +6579,14 @@
         <v>21</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -6584,20 +6595,20 @@
         <v>243</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H249" s="6"/>
     </row>
@@ -6612,14 +6623,14 @@
         <v>21</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E250" s="7"/>
       <c r="F250" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -6634,14 +6645,14 @@
         <v>21</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E251" s="6"/>
       <c r="F251" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H251" s="6"/>
     </row>
@@ -6656,14 +6667,14 @@
         <v>21</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -6678,16 +6689,16 @@
         <v>21</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H253" s="6"/>
     </row>
@@ -6702,16 +6713,16 @@
         <v>21</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -6726,7 +6737,7 @@
         <v>15</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -6744,7 +6755,7 @@
         <v>21</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E256" s="7">
         <v>2</v>
@@ -6764,10 +6775,10 @@
         <v>21</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
@@ -6784,7 +6795,7 @@
         <v>15</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E258" s="7">
         <v>10001</v>
@@ -6804,7 +6815,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E259" s="6">
         <v>9789045678</v>
@@ -6824,7 +6835,7 @@
         <v>15</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E260" s="7">
         <v>21331</v>
@@ -6844,7 +6855,7 @@
         <v>15</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E261" s="6">
         <v>97989898982</v>
@@ -6864,10 +6875,10 @@
         <v>15</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
@@ -6884,10 +6895,10 @@
         <v>15</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
@@ -6904,10 +6915,10 @@
         <v>15</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
@@ -6924,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -6944,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G266" s="7" t="s">
         <v>13</v>
@@ -7434,7 +7445,7 @@
         <v>21</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>78</v>
@@ -7482,14 +7493,14 @@
         <v>15</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -7546,7 +7557,7 @@
         <v>21</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -7580,14 +7591,14 @@
         <v>21</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H299" s="6"/>
     </row>
@@ -7602,11 +7613,11 @@
         <v>21</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G300" s="7" t="s">
         <v>84</v>
@@ -7618,20 +7629,20 @@
         <v>295</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E301" s="6"/>
       <c r="F301" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H301" s="6"/>
     </row>
@@ -7646,14 +7657,14 @@
         <v>21</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -7662,20 +7673,20 @@
         <v>297</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H303" s="6"/>
     </row>
@@ -7690,14 +7701,14 @@
         <v>21</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E304" s="7"/>
       <c r="F304" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G304" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -7712,14 +7723,14 @@
         <v>21</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H305" s="6"/>
     </row>
@@ -7734,14 +7745,14 @@
         <v>21</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E306" s="7"/>
       <c r="F306" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H306" s="7"/>
     </row>
@@ -7756,16 +7767,16 @@
         <v>21</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H307" s="6"/>
     </row>
@@ -7780,16 +7791,16 @@
         <v>21</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H308" s="7"/>
     </row>
@@ -7804,7 +7815,7 @@
         <v>15</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -7822,7 +7833,7 @@
         <v>21</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E310" s="7">
         <v>2</v>
@@ -7842,10 +7853,10 @@
         <v>21</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -7862,7 +7873,7 @@
         <v>15</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E312" s="7">
         <v>10001</v>
@@ -7882,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E313" s="6">
         <v>9789045678</v>
@@ -7902,7 +7913,7 @@
         <v>15</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E314" s="7">
         <v>21331</v>
@@ -7922,7 +7933,7 @@
         <v>15</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E315" s="6">
         <v>97989898982</v>
@@ -7942,10 +7953,10 @@
         <v>15</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
@@ -7962,10 +7973,10 @@
         <v>15</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -7982,10 +7993,10 @@
         <v>15</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
@@ -8002,7 +8013,7 @@
         <v>15</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -8022,7 +8033,7 @@
         <v>5</v>
       </c>
       <c r="F320" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G320" s="7" t="s">
         <v>13</v>
@@ -8543,7 +8554,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8551,20 +8562,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -8575,20 +8586,20 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -8596,47 +8607,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -8646,12 +8657,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -8661,17 +8672,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -8681,25 +8692,25 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -8709,7 +8720,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -8719,62 +8730,62 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -8784,289 +8795,289 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -9076,22 +9087,22 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64419CA1-BED6-42B0-A13A-557EB34D644F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +21,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="233">
   <si>
     <t>Step No</t>
   </si>
@@ -287,9 +293,6 @@
   </si>
   <si>
     <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
   </si>
   <si>
     <t>FACILITY/PRACTICE_NAME</t>
@@ -730,14 +733,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,152 +763,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,198 +779,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor theme="4" tint="0.799890133365886"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
+        <bgColor theme="4" tint="0.79985961485641044"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1127,264 +794,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399792474135563"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399792474135563"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399792474135563"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399792474135563"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39976195562608724"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1397,79 +822,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1727,29 +1108,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3338,7 +2719,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" s="4" customFormat="1" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -3360,7 +2741,7 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" s="4" customFormat="1" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -3376,7 +2757,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" s="4" customFormat="1" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -3400,7 +2781,7 @@
       </c>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" s="4" customFormat="1" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -3424,7 +2805,7 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" s="4" customFormat="1" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -3446,7 +2827,7 @@
       </c>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" s="4" customFormat="1" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -3464,7 +2845,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -3960,7 +3341,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" customFormat="1" spans="1:8">
+    <row r="115" spans="1:8" customFormat="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
         <v>11</v>
@@ -3974,7 +3355,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -3985,7 +3366,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>78</v>
@@ -3998,7 +3379,7 @@
       </c>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" s="4" customFormat="1" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>114</v>
       </c>
@@ -4022,7 +3403,7 @@
       </c>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" s="4" customFormat="1" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>115</v>
       </c>
@@ -4044,7 +3425,7 @@
       </c>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" s="4" customFormat="1" spans="1:8">
+    <row r="119" spans="1:8">
       <c r="A119" s="7">
         <v>116</v>
       </c>
@@ -4062,7 +3443,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" s="4" customFormat="1" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="6">
         <v>117</v>
       </c>
@@ -4558,7 +3939,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" customFormat="1" spans="1:8">
+    <row r="146" spans="1:8" customFormat="1">
       <c r="A146" s="7"/>
       <c r="B146" s="7" t="s">
         <v>11</v>
@@ -4572,7 +3953,7 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" s="4" customFormat="1" spans="1:8">
+    <row r="147" spans="1:8">
       <c r="A147" s="6">
         <v>143</v>
       </c>
@@ -4583,7 +3964,7 @@
         <v>21</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>78</v>
@@ -4596,7 +3977,7 @@
       </c>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" s="4" customFormat="1" spans="1:8">
+    <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>144</v>
       </c>
@@ -4620,7 +4001,7 @@
       </c>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" s="4" customFormat="1" spans="1:8">
+    <row r="149" spans="1:8">
       <c r="A149" s="6">
         <v>145</v>
       </c>
@@ -4642,7 +4023,7 @@
       </c>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" s="4" customFormat="1" spans="1:8">
+    <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>146</v>
       </c>
@@ -4660,7 +4041,7 @@
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" s="4" customFormat="1" spans="1:8">
+    <row r="151" spans="1:8">
       <c r="A151" s="6">
         <v>147</v>
       </c>
@@ -5250,7 +4631,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" customFormat="1" spans="1:8">
+    <row r="182" spans="1:8" customFormat="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6" t="s">
         <v>11</v>
@@ -5264,7 +4645,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" s="4" customFormat="1" spans="1:8">
+    <row r="183" spans="1:8">
       <c r="A183" s="7">
         <v>178</v>
       </c>
@@ -5275,7 +4656,7 @@
         <v>21</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>78</v>
@@ -5288,7 +4669,7 @@
       </c>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" s="4" customFormat="1" spans="1:8">
+    <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>179</v>
       </c>
@@ -5310,7 +4691,7 @@
       </c>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" s="4" customFormat="1" spans="1:8">
+    <row r="185" spans="1:8">
       <c r="A185" s="7">
         <v>180</v>
       </c>
@@ -5321,18 +4702,18 @@
         <v>15</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G185" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" s="4" customFormat="1" spans="1:8">
+    <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>181</v>
       </c>
@@ -5354,7 +4735,7 @@
       </c>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" s="4" customFormat="1" spans="1:8">
+    <row r="187" spans="1:8">
       <c r="A187" s="7">
         <v>182</v>
       </c>
@@ -5374,7 +4755,7 @@
       </c>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" s="4" customFormat="1" spans="1:8">
+    <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>183</v>
       </c>
@@ -5385,14 +4766,14 @@
         <v>21</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" s="4" customFormat="1" spans="1:8">
+    <row r="189" spans="1:8">
       <c r="A189" s="7">
         <v>184</v>
       </c>
@@ -5408,7 +4789,7 @@
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" s="4" customFormat="1" spans="1:8">
+    <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>185</v>
       </c>
@@ -5419,18 +4800,18 @@
         <v>21</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G190" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G190" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" s="4" customFormat="1" spans="1:8">
+    <row r="191" spans="1:8">
       <c r="A191" s="7">
         <v>186</v>
       </c>
@@ -5441,40 +4822,40 @@
         <v>21</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" s="4" customFormat="1" spans="1:8">
+    <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>187</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" s="4" customFormat="1" spans="1:8">
+    <row r="193" spans="1:8">
       <c r="A193" s="7">
         <v>188</v>
       </c>
@@ -5485,40 +4866,40 @@
         <v>21</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G193" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" s="4" customFormat="1" spans="1:8">
+    <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>189</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" s="4" customFormat="1" spans="1:8">
+    <row r="195" spans="1:8">
       <c r="A195" s="7">
         <v>190</v>
       </c>
@@ -5529,18 +4910,18 @@
         <v>21</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G195" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" s="4" customFormat="1" spans="1:8">
+    <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>191</v>
       </c>
@@ -5551,18 +4932,18 @@
         <v>21</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" s="4" customFormat="1" spans="1:8">
+    <row r="197" spans="1:8">
       <c r="A197" s="7">
         <v>192</v>
       </c>
@@ -5573,18 +4954,18 @@
         <v>21</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" s="4" customFormat="1" spans="1:8">
+    <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>193</v>
       </c>
@@ -5595,20 +4976,20 @@
         <v>21</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F198" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G198" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G198" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" s="4" customFormat="1" spans="1:8">
+    <row r="199" spans="1:8">
       <c r="A199" s="7">
         <v>194</v>
       </c>
@@ -5619,20 +5000,20 @@
         <v>21</v>
       </c>
       <c r="D199" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E199" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="F199" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="G199" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G199" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" s="4" customFormat="1" spans="1:8">
+    <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>195</v>
       </c>
@@ -5643,14 +5024,14 @@
         <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" s="4" customFormat="1" spans="1:8">
+    <row r="201" spans="1:8">
       <c r="A201" s="7">
         <v>196</v>
       </c>
@@ -5661,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E201" s="7">
         <v>2</v>
@@ -5670,7 +5051,7 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" s="4" customFormat="1" spans="1:8">
+    <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>197</v>
       </c>
@@ -5681,16 +5062,16 @@
         <v>21</v>
       </c>
       <c r="D202" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E202" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" s="4" customFormat="1" spans="1:8">
+    <row r="203" spans="1:8">
       <c r="A203" s="7">
         <v>198</v>
       </c>
@@ -5701,7 +5082,7 @@
         <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E203" s="7">
         <v>10001</v>
@@ -5710,7 +5091,7 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" s="4" customFormat="1" spans="1:8">
+    <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>199</v>
       </c>
@@ -5721,7 +5102,7 @@
         <v>15</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E204" s="6">
         <v>9789045678</v>
@@ -5730,7 +5111,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" s="4" customFormat="1" spans="1:8">
+    <row r="205" spans="1:8">
       <c r="A205" s="7">
         <v>200</v>
       </c>
@@ -5741,7 +5122,7 @@
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E205" s="7">
         <v>21331</v>
@@ -5750,7 +5131,7 @@
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" s="4" customFormat="1" spans="1:8">
+    <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>201</v>
       </c>
@@ -5761,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E206" s="6">
         <v>97989898982</v>
@@ -5770,7 +5151,7 @@
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
-    <row r="207" s="4" customFormat="1" spans="1:8">
+    <row r="207" spans="1:8">
       <c r="A207" s="7">
         <v>202</v>
       </c>
@@ -5781,16 +5162,16 @@
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E207" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" s="4" customFormat="1" spans="1:8">
+    <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>203</v>
       </c>
@@ -5801,16 +5182,16 @@
         <v>15</v>
       </c>
       <c r="D208" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E208" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" s="4" customFormat="1" spans="1:8">
+    <row r="209" spans="1:8">
       <c r="A209" s="7">
         <v>204</v>
       </c>
@@ -5821,16 +5202,16 @@
         <v>15</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" s="4" customFormat="1" spans="1:8">
+    <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>205</v>
       </c>
@@ -5841,14 +5222,14 @@
         <v>15</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" s="4" customFormat="1" spans="1:8">
+    <row r="211" spans="1:8">
       <c r="A211" s="7">
         <v>206</v>
       </c>
@@ -5861,7 +5242,7 @@
         <v>5</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>13</v>
@@ -6342,7 +5723,7 @@
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
-    <row r="237" customFormat="1" spans="1:8">
+    <row r="237" spans="1:8" customFormat="1">
       <c r="A237" s="6"/>
       <c r="B237" s="6" t="s">
         <v>11</v>
@@ -6356,7 +5737,7 @@
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
     </row>
-    <row r="238" s="4" customFormat="1" spans="1:8">
+    <row r="238" spans="1:8">
       <c r="A238" s="7">
         <v>232</v>
       </c>
@@ -6367,7 +5748,7 @@
         <v>21</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>78</v>
@@ -6380,7 +5761,7 @@
       </c>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" s="4" customFormat="1" spans="1:8">
+    <row r="239" spans="1:8">
       <c r="A239" s="6">
         <v>233</v>
       </c>
@@ -6404,7 +5785,7 @@
       </c>
       <c r="H239" s="6"/>
     </row>
-    <row r="240" s="4" customFormat="1" spans="1:8">
+    <row r="240" spans="1:8">
       <c r="A240" s="7">
         <v>234</v>
       </c>
@@ -6415,18 +5796,18 @@
         <v>15</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G240" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G240" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" s="4" customFormat="1" spans="1:8">
+    <row r="241" spans="1:8">
       <c r="A241" s="6">
         <v>235</v>
       </c>
@@ -6448,7 +5829,7 @@
       </c>
       <c r="H241" s="6"/>
     </row>
-    <row r="242" s="4" customFormat="1" spans="1:8">
+    <row r="242" spans="1:8">
       <c r="A242" s="7">
         <v>236</v>
       </c>
@@ -6468,7 +5849,7 @@
       </c>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" s="4" customFormat="1" spans="1:8">
+    <row r="243" spans="1:8">
       <c r="A243" s="6">
         <v>237</v>
       </c>
@@ -6479,14 +5860,14 @@
         <v>21</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
-    <row r="244" s="4" customFormat="1" spans="1:8">
+    <row r="244" spans="1:8">
       <c r="A244" s="7">
         <v>238</v>
       </c>
@@ -6502,7 +5883,7 @@
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" s="4" customFormat="1" spans="1:8">
+    <row r="245" spans="1:8">
       <c r="A245" s="6">
         <v>239</v>
       </c>
@@ -6513,18 +5894,18 @@
         <v>21</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G245" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G245" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="H245" s="6"/>
     </row>
-    <row r="246" s="4" customFormat="1" spans="1:8">
+    <row r="246" spans="1:8">
       <c r="A246" s="7">
         <v>240</v>
       </c>
@@ -6535,40 +5916,40 @@
         <v>21</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E246" s="7"/>
       <c r="F246" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" s="4" customFormat="1" spans="1:8">
+    <row r="247" spans="1:8">
       <c r="A247" s="6">
         <v>241</v>
       </c>
       <c r="B247" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E247" s="6"/>
       <c r="F247" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H247" s="6"/>
     </row>
-    <row r="248" s="4" customFormat="1" spans="1:8">
+    <row r="248" spans="1:8">
       <c r="A248" s="7">
         <v>242</v>
       </c>
@@ -6579,40 +5960,40 @@
         <v>21</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G248" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" s="4" customFormat="1" spans="1:8">
+    <row r="249" spans="1:8">
       <c r="A249" s="6">
         <v>243</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H249" s="6"/>
     </row>
-    <row r="250" s="4" customFormat="1" spans="1:8">
+    <row r="250" spans="1:8">
       <c r="A250" s="7">
         <v>244</v>
       </c>
@@ -6623,18 +6004,18 @@
         <v>21</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E250" s="7"/>
       <c r="F250" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G250" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" s="4" customFormat="1" spans="1:8">
+    <row r="251" spans="1:8">
       <c r="A251" s="6">
         <v>245</v>
       </c>
@@ -6645,18 +6026,18 @@
         <v>21</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E251" s="6"/>
       <c r="F251" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H251" s="6"/>
     </row>
-    <row r="252" s="4" customFormat="1" spans="1:8">
+    <row r="252" spans="1:8">
       <c r="A252" s="7">
         <v>246</v>
       </c>
@@ -6667,18 +6048,18 @@
         <v>21</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" s="4" customFormat="1" spans="1:8">
+    <row r="253" spans="1:8">
       <c r="A253" s="6">
         <v>247</v>
       </c>
@@ -6689,20 +6070,20 @@
         <v>21</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F253" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G253" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G253" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="H253" s="6"/>
     </row>
-    <row r="254" s="4" customFormat="1" spans="1:8">
+    <row r="254" spans="1:8">
       <c r="A254" s="7">
         <v>248</v>
       </c>
@@ -6713,20 +6094,20 @@
         <v>21</v>
       </c>
       <c r="D254" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E254" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E254" s="7" t="s">
+      <c r="F254" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F254" s="7" t="s">
+      <c r="G254" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G254" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" s="4" customFormat="1" spans="1:8">
+    <row r="255" spans="1:8">
       <c r="A255" s="6">
         <v>249</v>
       </c>
@@ -6737,14 +6118,14 @@
         <v>15</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
     </row>
-    <row r="256" s="4" customFormat="1" spans="1:8">
+    <row r="256" spans="1:8">
       <c r="A256" s="7">
         <v>250</v>
       </c>
@@ -6755,7 +6136,7 @@
         <v>21</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E256" s="7">
         <v>2</v>
@@ -6764,7 +6145,7 @@
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" s="4" customFormat="1" spans="1:8">
+    <row r="257" spans="1:8">
       <c r="A257" s="6">
         <v>251</v>
       </c>
@@ -6775,16 +6156,16 @@
         <v>21</v>
       </c>
       <c r="D257" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E257" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
-    <row r="258" s="4" customFormat="1" spans="1:8">
+    <row r="258" spans="1:8">
       <c r="A258" s="7">
         <v>252</v>
       </c>
@@ -6795,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E258" s="7">
         <v>10001</v>
@@ -6804,7 +6185,7 @@
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" s="4" customFormat="1" spans="1:8">
+    <row r="259" spans="1:8">
       <c r="A259" s="6">
         <v>253</v>
       </c>
@@ -6815,7 +6196,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E259" s="6">
         <v>9789045678</v>
@@ -6824,7 +6205,7 @@
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
     </row>
-    <row r="260" s="4" customFormat="1" spans="1:8">
+    <row r="260" spans="1:8">
       <c r="A260" s="7">
         <v>254</v>
       </c>
@@ -6835,7 +6216,7 @@
         <v>15</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E260" s="7">
         <v>21331</v>
@@ -6844,7 +6225,7 @@
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" s="4" customFormat="1" spans="1:8">
+    <row r="261" spans="1:8">
       <c r="A261" s="6">
         <v>255</v>
       </c>
@@ -6855,7 +6236,7 @@
         <v>15</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E261" s="6">
         <v>97989898982</v>
@@ -6864,7 +6245,7 @@
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
     </row>
-    <row r="262" s="4" customFormat="1" spans="1:8">
+    <row r="262" spans="1:8">
       <c r="A262" s="7">
         <v>256</v>
       </c>
@@ -6875,16 +6256,16 @@
         <v>15</v>
       </c>
       <c r="D262" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" s="4" customFormat="1" spans="1:8">
+    <row r="263" spans="1:8">
       <c r="A263" s="6">
         <v>257</v>
       </c>
@@ -6895,16 +6276,16 @@
         <v>15</v>
       </c>
       <c r="D263" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E263" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
     </row>
-    <row r="264" s="4" customFormat="1" spans="1:8">
+    <row r="264" spans="1:8">
       <c r="A264" s="7">
         <v>258</v>
       </c>
@@ -6915,16 +6296,16 @@
         <v>15</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" s="4" customFormat="1" spans="1:8">
+    <row r="265" spans="1:8">
       <c r="A265" s="6">
         <v>259</v>
       </c>
@@ -6935,14 +6316,14 @@
         <v>15</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
-    <row r="266" s="4" customFormat="1" spans="1:8">
+    <row r="266" spans="1:8">
       <c r="A266" s="7">
         <v>260</v>
       </c>
@@ -6955,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G266" s="7" t="s">
         <v>13</v>
@@ -7420,7 +6801,7 @@
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
     </row>
-    <row r="291" customFormat="1" spans="1:8">
+    <row r="291" spans="1:8" customFormat="1">
       <c r="A291" s="6"/>
       <c r="B291" s="6" t="s">
         <v>11</v>
@@ -7434,7 +6815,7 @@
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
     </row>
-    <row r="292" s="4" customFormat="1" spans="1:8">
+    <row r="292" spans="1:8">
       <c r="A292" s="7">
         <v>286</v>
       </c>
@@ -7445,7 +6826,7 @@
         <v>21</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>78</v>
@@ -7458,7 +6839,7 @@
       </c>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" s="4" customFormat="1" spans="1:8">
+    <row r="293" spans="1:8">
       <c r="A293" s="6">
         <v>287</v>
       </c>
@@ -7482,7 +6863,7 @@
       </c>
       <c r="H293" s="6"/>
     </row>
-    <row r="294" s="4" customFormat="1" spans="1:8">
+    <row r="294" spans="1:8">
       <c r="A294" s="7">
         <v>288</v>
       </c>
@@ -7493,18 +6874,18 @@
         <v>15</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G294" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G294" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" s="4" customFormat="1" spans="1:8">
+    <row r="295" spans="1:8">
       <c r="A295" s="6">
         <v>289</v>
       </c>
@@ -7526,7 +6907,7 @@
       </c>
       <c r="H295" s="6"/>
     </row>
-    <row r="296" s="4" customFormat="1" spans="1:8">
+    <row r="296" spans="1:8">
       <c r="A296" s="7">
         <v>290</v>
       </c>
@@ -7546,7 +6927,7 @@
       </c>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" s="4" customFormat="1" spans="1:8">
+    <row r="297" spans="1:8">
       <c r="A297" s="6">
         <v>291</v>
       </c>
@@ -7557,14 +6938,14 @@
         <v>21</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
     </row>
-    <row r="298" s="4" customFormat="1" spans="1:8">
+    <row r="298" spans="1:8">
       <c r="A298" s="7">
         <v>292</v>
       </c>
@@ -7580,7 +6961,7 @@
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" s="4" customFormat="1" spans="1:8">
+    <row r="299" spans="1:8">
       <c r="A299" s="6">
         <v>293</v>
       </c>
@@ -7591,18 +6972,18 @@
         <v>21</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G299" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G299" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="H299" s="6"/>
     </row>
-    <row r="300" s="4" customFormat="1" spans="1:8">
+    <row r="300" spans="1:8">
       <c r="A300" s="7">
         <v>294</v>
       </c>
@@ -7613,40 +6994,40 @@
         <v>21</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G300" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" s="4" customFormat="1" spans="1:8">
+    <row r="301" spans="1:8">
       <c r="A301" s="6">
         <v>295</v>
       </c>
       <c r="B301" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E301" s="6"/>
       <c r="F301" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H301" s="6"/>
     </row>
-    <row r="302" s="4" customFormat="1" spans="1:8">
+    <row r="302" spans="1:8">
       <c r="A302" s="7">
         <v>296</v>
       </c>
@@ -7657,40 +7038,40 @@
         <v>21</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G302" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G302" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" s="4" customFormat="1" spans="1:8">
+    <row r="303" spans="1:8">
       <c r="A303" s="6">
         <v>297</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H303" s="6"/>
     </row>
-    <row r="304" s="4" customFormat="1" spans="1:8">
+    <row r="304" spans="1:8">
       <c r="A304" s="7">
         <v>298</v>
       </c>
@@ -7701,18 +7082,18 @@
         <v>21</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E304" s="7"/>
       <c r="F304" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G304" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G304" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" s="4" customFormat="1" spans="1:8">
+    <row r="305" spans="1:8">
       <c r="A305" s="6">
         <v>299</v>
       </c>
@@ -7723,18 +7104,18 @@
         <v>21</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H305" s="6"/>
     </row>
-    <row r="306" s="4" customFormat="1" spans="1:8">
+    <row r="306" spans="1:8">
       <c r="A306" s="7">
         <v>300</v>
       </c>
@@ -7745,18 +7126,18 @@
         <v>21</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E306" s="7"/>
       <c r="F306" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" s="4" customFormat="1" spans="1:8">
+    <row r="307" spans="1:8">
       <c r="A307" s="6">
         <v>301</v>
       </c>
@@ -7767,20 +7148,20 @@
         <v>21</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F307" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G307" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G307" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="H307" s="6"/>
     </row>
-    <row r="308" s="4" customFormat="1" spans="1:8">
+    <row r="308" spans="1:8">
       <c r="A308" s="7">
         <v>302</v>
       </c>
@@ -7791,20 +7172,20 @@
         <v>21</v>
       </c>
       <c r="D308" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E308" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E308" s="7" t="s">
+      <c r="F308" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F308" s="7" t="s">
+      <c r="G308" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G308" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" s="4" customFormat="1" spans="1:8">
+    <row r="309" spans="1:8">
       <c r="A309" s="6">
         <v>303</v>
       </c>
@@ -7815,14 +7196,14 @@
         <v>15</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
     </row>
-    <row r="310" s="4" customFormat="1" spans="1:8">
+    <row r="310" spans="1:8">
       <c r="A310" s="7">
         <v>304</v>
       </c>
@@ -7833,7 +7214,7 @@
         <v>21</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E310" s="7">
         <v>2</v>
@@ -7842,7 +7223,7 @@
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" s="4" customFormat="1" spans="1:8">
+    <row r="311" spans="1:8">
       <c r="A311" s="6">
         <v>305</v>
       </c>
@@ -7853,16 +7234,16 @@
         <v>21</v>
       </c>
       <c r="D311" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E311" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
     </row>
-    <row r="312" s="4" customFormat="1" spans="1:8">
+    <row r="312" spans="1:8">
       <c r="A312" s="7">
         <v>306</v>
       </c>
@@ -7873,7 +7254,7 @@
         <v>15</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E312" s="7">
         <v>10001</v>
@@ -7882,7 +7263,7 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" s="4" customFormat="1" spans="1:8">
+    <row r="313" spans="1:8">
       <c r="A313" s="6">
         <v>307</v>
       </c>
@@ -7893,7 +7274,7 @@
         <v>15</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E313" s="6">
         <v>9789045678</v>
@@ -7902,7 +7283,7 @@
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
     </row>
-    <row r="314" s="4" customFormat="1" spans="1:8">
+    <row r="314" spans="1:8">
       <c r="A314" s="7">
         <v>308</v>
       </c>
@@ -7913,7 +7294,7 @@
         <v>15</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E314" s="7">
         <v>21331</v>
@@ -7922,7 +7303,7 @@
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" s="4" customFormat="1" spans="1:8">
+    <row r="315" spans="1:8">
       <c r="A315" s="6">
         <v>309</v>
       </c>
@@ -7933,7 +7314,7 @@
         <v>15</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E315" s="6">
         <v>97989898982</v>
@@ -7942,7 +7323,7 @@
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
     </row>
-    <row r="316" s="4" customFormat="1" spans="1:8">
+    <row r="316" spans="1:8">
       <c r="A316" s="7">
         <v>310</v>
       </c>
@@ -7953,16 +7334,16 @@
         <v>15</v>
       </c>
       <c r="D316" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E316" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="E316" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" s="4" customFormat="1" spans="1:8">
+    <row r="317" spans="1:8">
       <c r="A317" s="6">
         <v>311</v>
       </c>
@@ -7973,16 +7354,16 @@
         <v>15</v>
       </c>
       <c r="D317" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E317" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
     </row>
-    <row r="318" s="4" customFormat="1" spans="1:8">
+    <row r="318" spans="1:8">
       <c r="A318" s="7">
         <v>312</v>
       </c>
@@ -7993,16 +7374,16 @@
         <v>15</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" s="4" customFormat="1" spans="1:8">
+    <row r="319" spans="1:8">
       <c r="A319" s="6">
         <v>313</v>
       </c>
@@ -8013,14 +7394,14 @@
         <v>15</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" s="4" customFormat="1" spans="1:8">
+    <row r="320" spans="1:8">
       <c r="A320" s="7">
         <v>314</v>
       </c>
@@ -8033,7 +7414,7 @@
         <v>5</v>
       </c>
       <c r="F320" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G320" s="7" t="s">
         <v>13</v>
@@ -8519,273 +7900,281 @@
       <c r="H345" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B115 B146 B182 B237 B291 B1:B83 B85:B114 B116:B145 B147:B181 B183:B236 B238:B266 B267:B290 B292:B1048576">
-      <formula1>DataList!$C$2:$C$102</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84 C115 C146 C182 C237 C291 C1:C83 C85:C114 C116:C145 C147:C181 C183:C236 C238:C266 C267:C290 C292:C1048576">
-      <formula1>DataList!$A$2:$A$11</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>DataList!$C$2:$C$102</xm:f>
+          </x14:formula1>
+          <xm:sqref>B84 B115 B146 B182 B237 B291 B1:B83 B85:B114 B116:B145 B147:B181 B183:B236 B238:B266 B267:B290 B292:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>DataList!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84 C115 C146 C182 C237 C291 C1:C83 C85:C114 C116:C145 C147:C181 C183:C236 C238:C266 C267:C290 C292:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>141</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>147</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>149</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -8795,289 +8184,289 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>204</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>212</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -9087,33 +8476,32 @@
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C17" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Remitter_To_POEs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\LLS\Pharmacy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64419CA1-BED6-42B0-A13A-557EB34D644F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +15,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
   <si>
     <t>Step No</t>
   </si>
@@ -82,7 +76,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>101-14-2278</t>
+    <t>131-92-6794</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -733,8 +727,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,12 +759,163 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,12 +930,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
-        <bgColor theme="4" tint="0.79985961485641044"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor theme="4" tint="0.79985961485641"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -794,24 +1137,281 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39976195562608724"/>
+        <color theme="4" tint="0.399761955626087"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,37 +1420,84 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1108,29 +1755,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1177,7 +1824,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1197,7 +1844,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15.75" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1210,7 +1857,7 @@
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2767,7 +3414,7 @@
       <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -3341,7 +3988,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" customFormat="1">
+    <row r="115" customFormat="1" spans="1:8">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
         <v>11</v>
@@ -3939,7 +4586,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" customFormat="1">
+    <row r="146" customFormat="1" spans="1:8">
       <c r="A146" s="7"/>
       <c r="B146" s="7" t="s">
         <v>11</v>
@@ -4631,7 +5278,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" customFormat="1">
+    <row r="182" customFormat="1" spans="1:8">
       <c r="A182" s="6"/>
       <c r="B182" s="6" t="s">
         <v>11</v>
@@ -5723,7 +6370,7 @@
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
-    <row r="237" spans="1:8" customFormat="1">
+    <row r="237" customFormat="1" spans="1:8">
       <c r="A237" s="6"/>
       <c r="B237" s="6" t="s">
         <v>11</v>
@@ -6801,7 +7448,7 @@
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
     </row>
-    <row r="291" spans="1:8" customFormat="1">
+    <row r="291" customFormat="1" spans="1:8">
       <c r="A291" s="6"/>
       <c r="B291" s="6" t="s">
         <v>11</v>
@@ -7900,45 +8547,37 @@
       <c r="H345" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>DataList!$C$2:$C$102</xm:f>
-          </x14:formula1>
-          <xm:sqref>B84 B115 B146 B182 B237 B291 B1:B83 B85:B114 B116:B145 B147:B181 B183:B236 B238:B266 B267:B290 B292:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>DataList!$A$2:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84 C115 C146 C182 C237 C291 C1:C83 C85:C114 C116:C145 C147:C181 C183:C236 C238:C266 C267:C290 C292:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B115 B146 B182 B237 B291 B1:B83 B85:B114 B116:B145 B147:B181 B183:B236 B238:B266 B267:B290 B292:B1048576">
+      <formula1>DataList!$C$2:$C$102</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C84 C115 C146 C182 C237 C291 C1:C83 C85:C114 C116:C145 C147:C181 C183:C236 C238:C266 C267:C290 C292:C1048576">
+      <formula1>DataList!$A$2:$A$11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7946,7 +8585,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7954,7 +8593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -7962,7 +8601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -7970,7 +8609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -7978,7 +8617,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -7986,7 +8625,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -7994,7 +8633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -8013,7 +8652,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -8021,7 +8660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -8029,57 +8668,57 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>157</v>
       </c>
@@ -8092,47 +8731,47 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -8297,32 +8936,32 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>202</v>
       </c>
@@ -8335,7 +8974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>204</v>
       </c>
@@ -8348,22 +8987,22 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>209</v>
       </c>
@@ -8384,7 +9023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>212</v>
       </c>
@@ -8496,12 +9135,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C17" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C17">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
